--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9990" tabRatio="778" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="1825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="1826">
   <si>
     <t>case_id</t>
   </si>
@@ -9439,194 +9439,39 @@
    }
   ],
  "attachments": [
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EMF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_RDD",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_CTF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_IOM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_IMF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_SPO",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_IDF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_IMFW",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_AFD",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EMR",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ROC",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EDF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ECR",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_SAO",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ECT",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_APF",
-   "url": "${file_id}"
-  },{
-   "name": "${file_name}",
-   "typeCode": "FLT_IVO",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_AIV",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_PAL",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_APA",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },{
-   "name": "${file_name}",
-   "typeCode": "FLT_POD",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ATT",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_APP",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_GMF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_DSD",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ACT",
-   "url": "${file_id}"
-  },{
-   "name": "${file_name}",
-   "typeCode": "FLT_ABN",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_DAO",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_FAP",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_HAWB",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  }
- ],
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ABN"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ACT"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_AFD"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_AIV"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APA"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APP"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ATT"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_CTF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_DAO"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_DSD"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ECR"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ECT"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EDF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EMF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EMR"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EPM"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_FAP"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_GMF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_HAWB"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ICR"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IDF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IMF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IMFW"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IOM"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IVO"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_PAL"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_POD"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_RDD"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ROC"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_SAO"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_SPO"}
+],
  "shippingInfo": 
   {
    "shipper":{                                
@@ -13564,194 +13409,39 @@
    }
   ],
  "attachments": [
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EMF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_RDD",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_CTF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_IOM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_IMF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_SPO",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_IDF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_IMFW",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_AFD",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EMR",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ROC",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EDF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ECR",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_SAO",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ECT",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_APF",
-   "url": "${file_id}"
-  },{
-   "name": "${file_name}",
-   "typeCode": "FLT_IVO",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_AIV",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_PAL",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_APA",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },{
-   "name": "${file_name}",
-   "typeCode": "FLT_POD",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ATT",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_APP",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_GMF",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_DSD",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_ACT",
-   "url": "${file_id}"
-  },{
-   "name": "${file_name}",
-   "typeCode": "FLT_ABN",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_DAO",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_FAP",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_HAWB",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  },
-  {
-   "name": "${file_name}",
-   "typeCode": "FLT_EPM",
-   "url": "${file_id}"
-  }
- ],
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ABN"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ACT"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_AFD"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_AIV"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APA"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APP"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ATT"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_CTF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_DAO"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_DSD"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ECR"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ECT"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EDF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EMF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EMR"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EPM"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_FAP"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_GMF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_HAWB"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ICR"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IDF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IMF"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IMFW"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IOM"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IVO"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_PAL"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_POD"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_RDD"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ROC"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_SAO"},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_SPO"}
+],
  "shippingInfo": 
   {
    "shipper":{                                
@@ -14198,6 +13888,339 @@
   </si>
   <si>
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-express/${order_id}</t>
+  </si>
+  <si>
+    <t>{
+"referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${internat_reference_order_id}"
+   }
+  ],
+ "attachments": [
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ABN  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ACT  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_AFD  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_AIV  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APA  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APF  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APP  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ATT  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_CTF  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_DAO  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_DSD  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ECR  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ECT  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EDF  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EMF  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EMR  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EPM  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_FAP  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_GMF  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_HAWB "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ICR  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IDF  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IMF  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IMFW "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IOM  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IVO  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_PAL  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_POD  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_RDD  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ROC  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_SAO  "},
+{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_SPO  "}
+],
+ "shippingInfo": 
+  {
+   "shipper":{                                
+       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
+       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
+               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
+       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
+       "addressCode": "${cn_shipper_addressCode}",         
+       "countryCode": "${cn_shipper_countryCode}",         
+               "countryName": "${cn_shipper_countryName}",         
+       "provinceCode": "${cn_shipper_provinceCode}",        
+               "provinceName": "${cn_shipper_provinceName}",        
+       "cityCode": "${cn_shipper_cityCode}",            
+               "cityName": "${cn_shipper_cityName}",            
+       "districtCode": "${cn_shipper_districtCode}",        
+               "districtName": "${cn_shipper_districtName}",        
+       "streetCode": "${cn_shipper_streetCode}",          
+               "streetName": "${cn_shipper_streetName}",          
+       "addressDetail": "${cn_shipper_addressDetail}",       
+       "postCode": "${cn_shipper_postCode}",            
+       "contactName": "${cn_shipper_contactName}",         
+       "telephoneArea": "${cn_shipper_telephoneArea}",        
+               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
+       "mobileNumber": "${cn_shipper_mobileNumber}",        
+               "mobileArea": "${cn_shipper_mobileArea}",          
+       "email": "${cn_shipper_email}",
+  "isDefault": True,
+  "isInternationalPartner": False,
+  "transportLocationCode": "${internat_shipper_transportLocationCode}"
+       },
+ "shippingAddress":{                                      
+     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
+     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
+     "addressCode": "${cn_shippingAddress_addressCode}",              
+     "countryCode": "${cn_shippingAddress_countryCode}",              
+          "countryName": "${cn_shippingAddress_countryName}",              
+     "provinceCode": "${cn_shippingAddress_provinceCode}",             
+          "provinceName": "${cn_shippingAddress_provinceName}",             
+     "cityCode": "${cn_shippingAddress_cityCode}",                 
+          "cityName": "${cn_shippingAddress_cityName}",                 
+     "districtCode": "${cn_shippingAddress_districtCode}",             
+          "districtName": "${cn_shippingAddress_districtName}",             
+     "streetCode": "${cn_shippingAddress_streetCode}",               
+          "streetName": "${cn_shippingAddress_streetName}",               
+     "addressDetail": "${cn_shippingAddress_addressDetail}",            
+     "postCode": "${cn_shippingAddress_postCode}",                 
+     "contactName": "${cn_shippingAddress_contactName}",              
+     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
+          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
+     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
+          "mobileArea": "${cn_shippingAddress_mobileArea}",               
+     "email": "${cn_shippingAddress_email}",
+  "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "consignee":{                               
+      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
+      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
+             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
+      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
+      "addressCode": "${cn_consignee_addressCode}",         
+      "countryCode": "${cn_consignee_countryCode}",         
+             "countryName": "${cn_consignee_countryName}",         
+      "provinceCode": "${cn_consignee_provinceCode}",        
+             "provinceName": "${cn_consignee_provinceName}",        
+      "cityCode": "${cn_consignee_cityCode}",            
+             "cityName": "${cn_consignee_cityName}",            
+      "districtCode": "${cn_consignee_districtCode}",        
+             "districtName": "${cn_consignee_districtName}",        
+      "streetCode": "${cn_consignee_streetCode}",          
+             "streetName": "${cn_consignee_streetName}",          
+      "addressDetail": "${cn_consignee_addressDetail}",       
+      "postCode": "${cn_consignee_postCode}",            
+      "contactName": "${cn_consignee_contactName}",         
+      "telephoneArea": "${cn_consignee_telephoneArea}",        
+             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
+      "mobileNumber": "${cn_consignee_mobileNumber}",        
+             "mobileArea": "${cn_consignee_mobileArea}",          
+      "email": "${cn_consignee_email}" ,
+   "transportLocationCode": "${internat_consignee_transportLocationCode}" ,
+ "isDefault": True,
+ "isInternationalPartner": False
+     },
+ "receivingAddress":{                                      
+      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${cn_receivingAddress_addressCode}",             
+      "countryCode": "${cn_receivingAddress_countryCode}",             
+           "countryName": "${cn_receivingAddress_countryName}",              
+      "provinceCode": "${cn_receivingAddress_provinceCode}",            
+           "provinceName": "${cn_receivingAddress_provinceName}",             
+      "cityCode": "${cn_receivingAddress_cityCode}",                
+           "cityName": "${cn_receivingAddress_cityName}",                 
+      "districtCode": "${cn_receivingAddress_districtCode}",            
+           "districtName": "${cn_receivingAddress_districtName}",             
+      "streetCode": "${cn_receivingAddress_streetCode}",              
+           "streetName": "${cn_receivingAddress_streetName}",               
+      "addressDetail": "${cn_receivingAddress_addressDetail}",           
+      "postCode": "${cn_receivingAddress_postCode}",                
+      "contactName": "${cn_receivingAddress_contactName}",             
+      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
+           "mobileArea": "${cn_receivingAddress_mobileArea}",               
+     "email": "${cn_receivingAddress_email}" ,
+  "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+   "pickUp":True,
+   "takeDelivery":True,
+   "originCityId": "${origin_city_code}",
+   "destinationCityId": "${destion_city_code}",
+   "requiredPickupTime": 1622776198000,
+   "requiredArrivalTime": 1622862598000,
+   "serviceModeCode": "${service_id}",
+   "paymentTypeCode": "${express_paying_types_id}",
+   "originLocationCode": "${internat_shipper_transportLocationCode}",
+   "destinationLocationCode": "${internat_consignee_transportLocationCode}",
+   "incotermsCode":"${incoterms_id}"
+  },
+   "cargoInfo": {
+   "cargoTypeCode":"${cargo_types_id}",
+   "grossWeight": 12.86,
+   "grossWeightUnitCode": "${weight_unit_type}",
+   "pieceQty": 11,
+   "pieceQtyUnitCode": "${package_unit_types_id}",
+   "totalPackageQty": 12,
+   "totalPackageQtyUnitCode": "${package_unit_types_id}",
+   "totalVolume": 13,
+   "totalVolumeUnitCode": "${volume_unit_type}",
+   "bulkCartonQty": 14,
+   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+   "cargoDescription": "1231456asdfasdfasdkfj!",
+   "cargoInfoLines": [
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "12345678.11",
+  "netWeight": "12345.55",
+  "cargoQuantity": 8456456123
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44512.1455",
+  "netWeight": "4589.55",
+  "cargoQuantity": 33454654871
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "789456.1152",
+  "netWeight": "123456.5577",
+  "cargoQuantity": 8545123132
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44545231.1125",
+  "netWeight": "444.55",
+  "cargoQuantity": 564645641
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "3214521.1154",
+  "netWeight": "123456.55",
+  "cargoQuantity": 212123132
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "222222.456456",
+  "netWeight": "32144.456789",
+  "cargoQuantity": 123123123
+    },
+   {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "111.11254",
+  "netWeight": "44.5566",
+  "cargoQuantity": 888115465456
+    },
+   ] 
+    },
+ "valueAddedBusiness": {
+   "cargoValue": 10.00,
+   "currencyCode": "${currencyCode}",
+   "insurance": True,
+   "pod": True
+  },
+ "settlementInfo": {
+    "consignorId": "${companyId}",
+    "costCode": "${costCode}"
+  }
+}</t>
   </si>
   <si>
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-express/submit/${express_order_id}</t>
@@ -17759,10 +17782,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -17793,6 +17816,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -17800,15 +17838,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17830,76 +17883,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17914,7 +17899,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17929,10 +17921,41 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -17963,121 +17986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18095,7 +18004,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18107,43 +18130,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18172,6 +18195,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -18196,15 +18278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -18219,56 +18292,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -18277,7 +18300,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -18289,133 +18312,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -19035,8 +19058,8 @@
   <sheetPr/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21137,7 +21160,7 @@
         <v>486</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>1661</v>
+        <v>1710</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>1280</v>
@@ -21157,7 +21180,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="5" t="s">
@@ -21184,8 +21207,8 @@
   <sheetPr/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21235,20 +21258,20 @@
         <v>780</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="5" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -21260,23 +21283,23 @@
         <v>781</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>35</v>
@@ -21284,23 +21307,23 @@
     </row>
     <row r="4" ht="69" customHeight="1" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>35</v>
@@ -21311,24 +21334,24 @@
         <v>782</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:9">
@@ -21336,20 +21359,20 @@
         <v>783</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="13" t="s">
@@ -21361,24 +21384,24 @@
         <v>784</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="13" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:9">
@@ -21386,24 +21409,24 @@
         <v>785</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="13" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:9">
@@ -21411,68 +21434,68 @@
         <v>786</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="13" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="13" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1" spans="2:9">
       <c r="B11" s="1" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="13" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="12" ht="56" customHeight="1" spans="1:9">
@@ -21480,24 +21503,24 @@
         <v>787</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="13" ht="59" customHeight="1" spans="1:9">
@@ -21505,20 +21528,20 @@
         <v>788</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
@@ -21530,20 +21553,20 @@
         <v>789</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
@@ -21555,24 +21578,24 @@
         <v>790</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="16" ht="57" customHeight="1" spans="1:9">
@@ -21580,24 +21603,24 @@
         <v>791</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="1:9">
@@ -21605,24 +21628,24 @@
         <v>792</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="18" ht="54" customHeight="1" spans="1:9">
@@ -21630,24 +21653,24 @@
         <v>793</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="19" ht="53" customHeight="1" spans="1:9">
@@ -21655,24 +21678,24 @@
         <v>794</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:9">
@@ -21680,24 +21703,24 @@
         <v>795</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:9">
@@ -21705,24 +21728,24 @@
         <v>796</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="22" ht="68" customHeight="1" spans="1:9">
@@ -21730,24 +21753,24 @@
         <v>797</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="1:9">
@@ -21755,17 +21778,17 @@
         <v>798</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -21775,17 +21798,17 @@
     </row>
     <row r="24" ht="78" customHeight="1" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -21798,20 +21821,20 @@
         <v>799</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
@@ -21820,23 +21843,23 @@
     </row>
     <row r="26" ht="118" customHeight="1" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>35</v>
@@ -21844,13 +21867,13 @@
     </row>
     <row r="27" ht="108" spans="2:9">
       <c r="B27" s="14" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="17" t="s">
@@ -21864,23 +21887,23 @@
     </row>
     <row r="28" ht="112" customHeight="1" spans="2:9">
       <c r="B28" s="1" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>35</v>
@@ -21888,13 +21911,13 @@
     </row>
     <row r="29" ht="108" spans="2:9">
       <c r="B29" s="14" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17" t="s">
@@ -21908,23 +21931,23 @@
     </row>
     <row r="30" ht="115" customHeight="1" spans="2:9">
       <c r="B30" s="1" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>35</v>
@@ -21932,13 +21955,13 @@
     </row>
     <row r="31" ht="108" spans="2:9">
       <c r="B31" s="14" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="17" t="s">
@@ -21952,23 +21975,23 @@
     </row>
     <row r="32" ht="114" customHeight="1" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>35</v>
@@ -21976,13 +21999,13 @@
     </row>
     <row r="33" ht="108" spans="2:9">
       <c r="B33" s="14" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
@@ -21996,23 +22019,23 @@
     </row>
     <row r="34" ht="92" customHeight="1" spans="2:9">
       <c r="B34" s="1" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>35</v>
@@ -22020,13 +22043,13 @@
     </row>
     <row r="35" ht="108" spans="2:9">
       <c r="B35" s="14" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="17" t="s">
@@ -22040,23 +22063,23 @@
     </row>
     <row r="36" ht="100" customHeight="1" spans="2:9">
       <c r="B36" s="1" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>35</v>
@@ -22064,13 +22087,13 @@
     </row>
     <row r="37" ht="108" spans="2:9">
       <c r="B37" s="14" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="17" t="s">
@@ -22084,23 +22107,23 @@
     </row>
     <row r="38" ht="130" customHeight="1" spans="2:9">
       <c r="B38" s="1" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>35</v>
@@ -22108,13 +22131,13 @@
     </row>
     <row r="39" ht="108" spans="2:9">
       <c r="B39" s="14" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="17" t="s">
@@ -22128,23 +22151,23 @@
     </row>
     <row r="40" ht="133" customHeight="1" spans="2:9">
       <c r="B40" s="1" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="12" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>35</v>
@@ -22152,13 +22175,13 @@
     </row>
     <row r="41" ht="108" spans="2:9">
       <c r="B41" s="14" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="17" t="s">
@@ -22249,7 +22272,7 @@
         <v>486</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1596</v>
@@ -22299,7 +22322,7 @@
         <v>486</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1454</v>
@@ -22349,7 +22372,7 @@
         <v>486</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1167</v>
@@ -22399,7 +22422,7 @@
         <v>486</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1025</v>
@@ -22449,7 +22472,7 @@
         <v>486</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>899</v>
@@ -22499,7 +22522,7 @@
         <v>486</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>757</v>
@@ -31154,8 +31177,8 @@
   <sheetPr/>
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36315,8 +36338,8 @@
   <sheetPr/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -11091,278 +11091,7 @@
   "entrustCustomsDeclaration":True,
   "insuredValue":11
  },
-"attachments": [
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_COF"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_COU"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_CST"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_ISF"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_CDR"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_CIV"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_COR"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_IVO"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_PAL"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_DAO"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_MBL"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_HBL"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_PODF"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_BKC"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_SLI"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_PALT"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_AIN"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_BKG"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_AGI"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_ARC"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_ARN"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_BCA"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_BOE"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_BOL"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_CAD"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_CAU"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_CTR"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_CUS"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_DAL"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_DAN"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_DEC"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_DGF"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_DNO"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_DRC"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_ECA"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_EXD"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_FUM"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_FWI"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_GTP"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_ICA"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_ICRA"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_INB"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_IRT"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_LID"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_MAN"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_MCD"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_MCF"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_MDC"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_NOT"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_OBL"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_POA"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_SDN"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_SDS"
-  },
-  {
-   "name": "${file_name}",
-   "url": "${file_id}",
-   "typeCode": "FLT_TSC"
-  }
- ]
+"attachments": $__attachment{internat_sea}
 }</t>
   </si>
   <si>
@@ -17782,9 +17511,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -17815,16 +17544,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17837,16 +17559,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17859,30 +17580,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -17891,45 +17588,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -17945,7 +17604,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17986,31 +17715,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18028,7 +17763,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18040,19 +17799,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18064,109 +17871,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18195,13 +17924,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18211,15 +17953,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18239,17 +17972,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18268,30 +18021,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -18300,10 +18029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18312,19 +18041,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18333,112 +18062,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -36338,7 +36067,7 @@
   <sheetPr/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
@@ -38487,8 +38216,8 @@
   <sheetPr/>
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5912" uniqueCount="1827">
   <si>
     <t>case_id</t>
   </si>
@@ -9438,40 +9438,7 @@
    "referenceOrderType": "${cn_reference_order_id}"
    }
   ],
- "attachments": [
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ABN"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ACT"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_AFD"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_AIV"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APA"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APF"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_APP"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ATT"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_CTF"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_DAO"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_DSD"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ECR"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ECT"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EDF"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EMF"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EMR"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_EPM"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_FAP"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_GMF"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_HAWB"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ICR"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IDF"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IMF"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IMFW"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IOM"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_IVO"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_PAL"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_POD"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_RDD"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_ROC"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_SAO"},
-{"name": "${file_name}","url": "${file_id}","typeCode": "FLT_SPO"}
-],
+ "attachments": $__attachment{cn_express},
  "shippingInfo": 
   {
    "shipper":{                                
@@ -9894,6 +9861,292 @@
   </si>
   <si>
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/domestic-express/${order_id}</t>
+  </si>
+  <si>
+    <t>{
+"referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${cn_reference_order_id}"
+   }
+  ],
+ "attachments":$__attachment{cn_express},
+ "shippingInfo": 
+  {
+   "shipper":{                                
+       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
+       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
+               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
+       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
+       "addressCode": "${cn_shipper_addressCode}",         
+       "countryCode": "${cn_shipper_countryCode}",         
+               "countryName": "${cn_shipper_countryName}",         
+       "provinceCode": "${cn_shipper_provinceCode}",        
+               "provinceName": "${cn_shipper_provinceName}",        
+       "cityCode": "${cn_shipper_cityCode}",            
+               "cityName": "${cn_shipper_cityName}",            
+       "districtCode": "${cn_shipper_districtCode}",        
+               "districtName": "${cn_shipper_districtName}",        
+       "streetCode": "${cn_shipper_streetCode}",          
+               "streetName": "${cn_shipper_streetName}",          
+       "addressDetail": "${cn_shipper_addressDetail}",       
+       "postCode": "${cn_shipper_postCode}",            
+       "contactName": "${cn_shipper_contactName}",         
+       "telephoneArea": "${cn_shipper_telephoneArea}",        
+               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
+       "mobileNumber": "${cn_shipper_mobileNumber}",        
+               "mobileArea": "${cn_shipper_mobileArea}",          
+       "email": "${cn_shipper_email}",
+  "isDefault": True,
+  "isInternationalPartner": False
+       },
+ "shippingAddress":{                                      
+     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
+     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
+     "addressCode": "${cn_shippingAddress_addressCode}",              
+     "countryCode": "${cn_shippingAddress_countryCode}",              
+          "countryName": "${cn_shippingAddress_countryName}",              
+     "provinceCode": "${cn_shippingAddress_provinceCode}",             
+          "provinceName": "${cn_shippingAddress_provinceName}",             
+     "cityCode": "${cn_shippingAddress_cityCode}",                 
+          "cityName": "${cn_shippingAddress_cityName}",                 
+     "districtCode": "${cn_shippingAddress_districtCode}",             
+          "districtName": "${cn_shippingAddress_districtName}",             
+     "streetCode": "${cn_shippingAddress_streetCode}",               
+          "streetName": "${cn_shippingAddress_streetName}",               
+     "addressDetail": "${cn_shippingAddress_addressDetail}",            
+     "postCode": "${cn_shippingAddress_postCode}",                 
+     "contactName": "${cn_shippingAddress_contactName}",              
+     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
+          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
+     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
+          "mobileArea": "${cn_shippingAddress_mobileArea}",               
+     "email": "${cn_shippingAddress_email}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "consignee":{                               
+      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
+      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
+             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
+      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
+      "addressCode": "${cn_consignee_addressCode}",         
+      "countryCode": "${cn_consignee_countryCode}",         
+             "countryName": "${cn_consignee_countryName}",         
+      "provinceCode": "${cn_consignee_provinceCode}",        
+             "provinceName": "${cn_consignee_provinceName}",        
+      "cityCode": "${cn_consignee_cityCode}",            
+             "cityName": "${cn_consignee_cityName}",            
+      "districtCode": "${cn_consignee_districtCode}",        
+             "districtName": "${cn_consignee_districtName}",        
+      "streetCode": "${cn_consignee_streetCode}",          
+             "streetName": "${cn_consignee_streetName}",          
+      "addressDetail": "${cn_consignee_addressDetail}",       
+      "postCode": "${cn_consignee_postCode}",            
+      "contactName": "${cn_consignee_contactName}",         
+      "telephoneArea": "${cn_consignee_telephoneArea}",        
+             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
+      "mobileNumber": "${cn_consignee_mobileNumber}",        
+             "mobileArea": "${cn_consignee_mobileArea}",          
+      "email": "${cn_consignee_email}" ,
+ "isDefault": True,
+ "isInternationalPartner": False
+     },
+ "receivingAddress":{                                      
+      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${cn_receivingAddress_addressCode}",             
+      "countryCode": "${cn_receivingAddress_countryCode}",             
+           "countryName": "${cn_receivingAddress_countryName}",              
+      "provinceCode": "${cn_receivingAddress_provinceCode}",            
+           "provinceName": "${cn_receivingAddress_provinceName}",             
+      "cityCode": "${cn_receivingAddress_cityCode}",                
+           "cityName": "${cn_receivingAddress_cityName}",                 
+      "districtCode": "${cn_receivingAddress_districtCode}",            
+           "districtName": "${cn_receivingAddress_districtName}",             
+      "streetCode": "${cn_receivingAddress_streetCode}",              
+           "streetName": "${cn_receivingAddress_streetName}",               
+      "addressDetail": "${cn_receivingAddress_addressDetail}",           
+      "postCode": "${cn_receivingAddress_postCode}",                
+      "contactName": "${cn_receivingAddress_contactName}",             
+      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
+           "mobileArea": "${cn_receivingAddress_mobileArea}",               
+     "email": "${cn_receivingAddress_email}" ,
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+   "pickUp":True,
+   "takeDelivery":True,
+   "originCityId": "${origin_city_code}",
+   "destinationCityId": "${destion_city_code}",
+   "requiredPickupTime": 1622776198000,
+   "requiredArrivalTime": 1622862598000,
+   "serviceModeCode": "${service_id}",
+   "paymentTypeCode":"${express_paying_types_id}"
+  },
+   "cargoInfo": {
+   "cargoTypeCode":"${cargo_types_id}",
+   "grossWeight": 12.86,
+   "grossWeightUnitCode": "${weight_unit_type}",
+   "pieceQty": 11,
+   "pieceQtyUnitCode": "${package_unit_types_id}",
+   "totalPackageQty": 12,
+   "totalPackageQtyUnitCode": "${package_unit_types_id}",
+   "totalVolume": 13,
+   "totalVolumeUnitCode": "${volume_unit_type}",
+   "bulkCartonQty": 14,
+   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+   "cargoDescription": "1231456asdfasdfasdkfj!",
+   "cargoInfoLines": [
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "12345678.11",
+  "netWeight": "12345.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44512.1455",
+  "netWeight": "4589.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "789456.1152",
+  "netWeight": "123456.5577"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44545231.1125",
+  "netWeight": "444.55"
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "3214521.1154",
+  "netWeight": "123456.55"
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "222222.456456",
+  "netWeight": "32144.456789"
+    },
+   {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "111.11254",
+  "netWeight": "44.5566"
+    },
+   ] 
+    },
+ "valueAddedBusiness": {
+   "cargoValue": 10.00,
+   "currencyCode": "${currencyCode}",
+   "insurance": True,
+   "pod": True
+  },
+ "settlementInfo": {
+    "consignorId": "${companyId}",
+    "costCode": "${costCode}"
+  }
+}</t>
   </si>
   <si>
     <t>{"express_order_id":"$..data"}</t>
@@ -17544,14 +17797,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -17566,10 +17811,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17587,16 +17833,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17625,26 +17895,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17664,25 +17919,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17715,7 +17968,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17727,19 +18088,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17751,49 +18130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17805,97 +18148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17920,30 +18173,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17974,11 +18203,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17997,30 +18274,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -18029,10 +18282,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18041,16 +18294,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18059,115 +18312,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18838,23 +19091,23 @@
         <v>429</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>35</v>
@@ -18865,13 +19118,13 @@
         <v>430</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="17" t="s">
@@ -18880,7 +19133,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:9">
@@ -18888,13 +19141,13 @@
         <v>431</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="12" t="s">
@@ -18903,7 +19156,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:9">
@@ -18911,20 +19164,20 @@
         <v>432</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -18936,13 +19189,13 @@
         <v>433</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="17" t="s">
@@ -18959,13 +19212,13 @@
         <v>434</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="12" t="s">
@@ -18982,20 +19235,20 @@
         <v>435</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -19007,13 +19260,13 @@
         <v>436</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="17" t="s">
@@ -19030,13 +19283,13 @@
         <v>437</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="12" t="s">
@@ -19053,20 +19306,20 @@
         <v>438</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
@@ -19078,13 +19331,13 @@
         <v>439</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="17" t="s">
@@ -19101,13 +19354,13 @@
         <v>440</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="12" t="s">
@@ -19124,20 +19377,20 @@
         <v>441</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
@@ -19149,13 +19402,13 @@
         <v>442</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="17" t="s">
@@ -19172,13 +19425,13 @@
         <v>443</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="12" t="s">
@@ -19195,20 +19448,20 @@
         <v>444</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
@@ -19220,13 +19473,13 @@
         <v>445</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="17" t="s">
@@ -19243,13 +19496,13 @@
         <v>446</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
@@ -19266,20 +19519,20 @@
         <v>447</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -19291,13 +19544,13 @@
         <v>448</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="17" t="s">
@@ -19306,7 +19559,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="22" ht="134" customHeight="1" spans="1:9">
@@ -19314,13 +19567,13 @@
         <v>449</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="12" t="s">
@@ -19329,7 +19582,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="23" ht="189" spans="1:9">
@@ -19337,20 +19590,20 @@
         <v>450</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -19362,13 +19615,13 @@
         <v>451</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="17" t="s">
@@ -19385,13 +19638,13 @@
         <v>452</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="12" t="s">
@@ -19408,20 +19661,20 @@
         <v>456</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -19433,13 +19686,13 @@
         <v>457</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="17" t="s">
@@ -19448,7 +19701,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="28" ht="189" spans="1:9">
@@ -19456,13 +19709,13 @@
         <v>458</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="12" t="s">
@@ -19471,7 +19724,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="29" ht="189" spans="1:9">
@@ -19479,20 +19732,20 @@
         <v>468</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -19504,13 +19757,13 @@
         <v>469</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="17" t="s">
@@ -19519,7 +19772,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="31" ht="189" spans="1:9">
@@ -19527,13 +19780,13 @@
         <v>470</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="12" t="s">
@@ -19542,7 +19795,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="32" ht="216" spans="1:9">
@@ -19550,20 +19803,20 @@
         <v>471</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -19575,13 +19828,13 @@
         <v>472</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
@@ -19598,13 +19851,13 @@
         <v>473</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="12" t="s">
@@ -19621,20 +19874,20 @@
         <v>474</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
@@ -19646,13 +19899,13 @@
         <v>475</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17" t="s">
@@ -19661,7 +19914,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="37" ht="178" customHeight="1" spans="1:9">
@@ -19669,13 +19922,13 @@
         <v>476</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="12" t="s">
@@ -19684,7 +19937,7 @@
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="38" ht="138" customHeight="1" spans="1:9">
@@ -19692,20 +19945,20 @@
         <v>477</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -19717,13 +19970,13 @@
         <v>478</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="17" t="s">
@@ -19740,13 +19993,13 @@
         <v>479</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="12" t="s">
@@ -19763,20 +20016,20 @@
         <v>480</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -19788,13 +20041,13 @@
         <v>481</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="17" t="s">
@@ -19811,13 +20064,13 @@
         <v>482</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="12" t="s">
@@ -19834,20 +20087,20 @@
         <v>483</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>636</v>
@@ -19861,20 +20114,20 @@
         <v>484</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="26" t="s">
@@ -19886,13 +20139,13 @@
         <v>485</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="17" t="s">
@@ -19909,13 +20162,13 @@
         <v>486</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="12" t="s">
@@ -19932,20 +20185,20 @@
         <v>487</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
@@ -19957,13 +20210,13 @@
         <v>488</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="17" t="s">
@@ -19980,13 +20233,13 @@
         <v>489</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="12" t="s">
@@ -20003,20 +20256,20 @@
         <v>490</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5" t="s">
@@ -20028,13 +20281,13 @@
         <v>491</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="17" t="s">
@@ -20051,13 +20304,13 @@
         <v>492</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="12" t="s">
@@ -20074,20 +20327,20 @@
         <v>493</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5" t="s">
@@ -20099,13 +20352,13 @@
         <v>494</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="17" t="s">
@@ -20122,13 +20375,13 @@
         <v>495</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="12" t="s">
@@ -20145,20 +20398,20 @@
         <v>496</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
@@ -20170,13 +20423,13 @@
         <v>497</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="17" t="s">
@@ -20193,13 +20446,13 @@
         <v>498</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="12" t="s">
@@ -20216,20 +20469,20 @@
         <v>499</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
@@ -20241,13 +20494,13 @@
         <v>500</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="17" t="s">
@@ -20256,7 +20509,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="62" ht="144" customHeight="1" spans="1:9">
@@ -20264,13 +20517,13 @@
         <v>501</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="12" t="s">
@@ -20279,7 +20532,7 @@
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="63" ht="189" spans="1:9">
@@ -20287,20 +20540,20 @@
         <v>502</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
@@ -20312,13 +20565,13 @@
         <v>503</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="17" t="s">
@@ -20335,13 +20588,13 @@
         <v>504</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="12" t="s">
@@ -20358,20 +20611,20 @@
         <v>508</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>639</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
@@ -20383,13 +20636,13 @@
         <v>509</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="17" t="s">
@@ -20398,7 +20651,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="68" ht="163" customHeight="1" spans="1:9">
@@ -20406,13 +20659,13 @@
         <v>510</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="12" t="s">
@@ -20421,7 +20674,7 @@
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
       <c r="I68" s="23" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="69" ht="189" spans="1:9">
@@ -20429,20 +20682,20 @@
         <v>520</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
@@ -20454,13 +20707,13 @@
         <v>521</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="17" t="s">
@@ -20469,7 +20722,7 @@
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="71" ht="189" spans="1:9">
@@ -20477,13 +20730,13 @@
         <v>522</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="12" t="s">
@@ -20492,7 +20745,7 @@
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="72" ht="216" spans="1:9">
@@ -20500,20 +20753,20 @@
         <v>523</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
@@ -20525,13 +20778,13 @@
         <v>524</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="17" t="s">
@@ -20548,13 +20801,13 @@
         <v>525</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E74" s="25"/>
       <c r="F74" s="12" t="s">
@@ -20571,20 +20824,20 @@
         <v>526</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C75" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
@@ -20596,13 +20849,13 @@
         <v>527</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="17" t="s">
@@ -20611,7 +20864,7 @@
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="77" ht="177" customHeight="1" spans="1:9">
@@ -20619,13 +20872,13 @@
         <v>528</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C77" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E77" s="25"/>
       <c r="F77" s="12" t="s">
@@ -20634,7 +20887,7 @@
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="78" ht="189" spans="1:9">
@@ -20642,20 +20895,20 @@
         <v>529</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C78" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
@@ -20667,13 +20920,13 @@
         <v>530</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="17" t="s">
@@ -20690,13 +20943,13 @@
         <v>531</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="12" t="s">
@@ -20713,20 +20966,20 @@
         <v>532</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
@@ -20738,13 +20991,13 @@
         <v>533</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="17" t="s">
@@ -20761,13 +21014,13 @@
         <v>534</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="12" t="s">
@@ -20784,13 +21037,13 @@
         <v>535</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>743</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="5" t="s">
@@ -20807,13 +21060,13 @@
         <v>536</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="17" t="s">
@@ -20830,13 +21083,13 @@
         <v>537</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="5" t="s">
@@ -20853,13 +21106,13 @@
         <v>538</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="17" t="s">
@@ -20876,23 +21129,23 @@
         <v>540</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>35</v>
@@ -20903,13 +21156,13 @@
         <v>541</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="5" t="s">
@@ -20987,20 +21240,20 @@
         <v>780</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="5" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -21012,23 +21265,23 @@
         <v>781</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>35</v>
@@ -21036,23 +21289,23 @@
     </row>
     <row r="4" ht="69" customHeight="1" spans="2:9">
       <c r="B4" s="1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>35</v>
@@ -21063,24 +21316,24 @@
         <v>782</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:9">
@@ -21088,20 +21341,20 @@
         <v>783</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="13" t="s">
@@ -21113,24 +21366,24 @@
         <v>784</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="13" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:9">
@@ -21138,24 +21391,24 @@
         <v>785</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="13" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:9">
@@ -21163,68 +21416,68 @@
         <v>786</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="13" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="10" ht="35" customHeight="1" spans="2:9">
       <c r="B10" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="13" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="11" ht="35" customHeight="1" spans="2:9">
       <c r="B11" s="1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="13" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="12" ht="56" customHeight="1" spans="1:9">
@@ -21232,24 +21485,24 @@
         <v>787</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="13" ht="59" customHeight="1" spans="1:9">
@@ -21257,20 +21510,20 @@
         <v>788</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
@@ -21282,20 +21535,20 @@
         <v>789</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
@@ -21307,24 +21560,24 @@
         <v>790</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="16" ht="57" customHeight="1" spans="1:9">
@@ -21332,24 +21585,24 @@
         <v>791</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="1:9">
@@ -21357,24 +21610,24 @@
         <v>792</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="18" ht="54" customHeight="1" spans="1:9">
@@ -21382,24 +21635,24 @@
         <v>793</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="19" ht="53" customHeight="1" spans="1:9">
@@ -21407,24 +21660,24 @@
         <v>794</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:9">
@@ -21432,24 +21685,24 @@
         <v>795</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="21" ht="63" customHeight="1" spans="1:9">
@@ -21457,24 +21710,24 @@
         <v>796</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="22" ht="68" customHeight="1" spans="1:9">
@@ -21482,24 +21735,24 @@
         <v>797</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="23" ht="78" customHeight="1" spans="1:9">
@@ -21507,17 +21760,17 @@
         <v>798</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -21527,17 +21780,17 @@
     </row>
     <row r="24" ht="78" customHeight="1" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -21550,20 +21803,20 @@
         <v>799</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13" t="s">
@@ -21572,23 +21825,23 @@
     </row>
     <row r="26" ht="118" customHeight="1" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>35</v>
@@ -21596,13 +21849,13 @@
     </row>
     <row r="27" ht="108" spans="2:9">
       <c r="B27" s="14" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="17" t="s">
@@ -21616,23 +21869,23 @@
     </row>
     <row r="28" ht="112" customHeight="1" spans="2:9">
       <c r="B28" s="1" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>35</v>
@@ -21640,13 +21893,13 @@
     </row>
     <row r="29" ht="108" spans="2:9">
       <c r="B29" s="14" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="17" t="s">
@@ -21660,23 +21913,23 @@
     </row>
     <row r="30" ht="115" customHeight="1" spans="2:9">
       <c r="B30" s="1" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>35</v>
@@ -21684,13 +21937,13 @@
     </row>
     <row r="31" ht="108" spans="2:9">
       <c r="B31" s="14" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="17" t="s">
@@ -21704,23 +21957,23 @@
     </row>
     <row r="32" ht="114" customHeight="1" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>35</v>
@@ -21728,13 +21981,13 @@
     </row>
     <row r="33" ht="108" spans="2:9">
       <c r="B33" s="14" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
@@ -21748,23 +22001,23 @@
     </row>
     <row r="34" ht="92" customHeight="1" spans="2:9">
       <c r="B34" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>35</v>
@@ -21772,13 +22025,13 @@
     </row>
     <row r="35" ht="108" spans="2:9">
       <c r="B35" s="14" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="17" t="s">
@@ -21792,23 +22045,23 @@
     </row>
     <row r="36" ht="100" customHeight="1" spans="2:9">
       <c r="B36" s="1" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>35</v>
@@ -21816,13 +22069,13 @@
     </row>
     <row r="37" ht="108" spans="2:9">
       <c r="B37" s="14" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="17" t="s">
@@ -21836,23 +22089,23 @@
     </row>
     <row r="38" ht="130" customHeight="1" spans="2:9">
       <c r="B38" s="1" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>35</v>
@@ -21860,13 +22113,13 @@
     </row>
     <row r="39" ht="108" spans="2:9">
       <c r="B39" s="14" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="17" t="s">
@@ -21880,23 +22133,23 @@
     </row>
     <row r="40" ht="133" customHeight="1" spans="2:9">
       <c r="B40" s="1" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="12" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>35</v>
@@ -21904,13 +22157,13 @@
     </row>
     <row r="41" ht="108" spans="2:9">
       <c r="B41" s="14" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="17" t="s">
@@ -21988,23 +22241,23 @@
         <v>799</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -22015,13 +22268,13 @@
         <v>800</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="5" t="s">
@@ -22038,23 +22291,23 @@
         <v>801</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -22065,13 +22318,13 @@
         <v>802</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="5" t="s">
@@ -22101,7 +22354,7 @@
         <v>486</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1167</v>
@@ -22151,7 +22404,7 @@
         <v>486</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1025</v>
@@ -22201,7 +22454,7 @@
         <v>486</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>899</v>
@@ -22251,7 +22504,7 @@
         <v>486</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>757</v>
@@ -36067,8 +36320,8 @@
   <sheetPr/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38169,10 +38422,10 @@
         <v>486</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>1232</v>
+        <v>1280</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>35</v>
@@ -38189,7 +38442,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="5" t="s">
@@ -38216,7 +38469,7 @@
   <sheetPr/>
   <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
@@ -38267,23 +38520,23 @@
         <v>542</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>35</v>
@@ -38294,13 +38547,13 @@
         <v>543</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="12" t="s">
@@ -38309,7 +38562,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:9">
@@ -38317,13 +38570,13 @@
         <v>544</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="12" t="s">
@@ -38332,7 +38585,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:9">
@@ -38340,20 +38593,20 @@
         <v>545</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -38365,13 +38618,13 @@
         <v>546</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="12" t="s">
@@ -38388,13 +38641,13 @@
         <v>547</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="12" t="s">
@@ -38411,20 +38664,20 @@
         <v>548</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -38436,13 +38689,13 @@
         <v>549</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="12" t="s">
@@ -38451,7 +38704,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" ht="100" customHeight="1" spans="1:9">
@@ -38459,13 +38712,13 @@
         <v>550</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="12" t="s">
@@ -38474,7 +38727,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="11" ht="158" customHeight="1" spans="1:9">
@@ -38482,20 +38735,20 @@
         <v>551</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
@@ -38507,13 +38760,13 @@
         <v>552</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="12" t="s">
@@ -38522,7 +38775,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" ht="121" customHeight="1" spans="1:9">
@@ -38530,13 +38783,13 @@
         <v>553</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="12" t="s">
@@ -38545,7 +38798,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="14" ht="141" customHeight="1" spans="1:9">
@@ -38553,20 +38806,20 @@
         <v>554</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
@@ -38578,13 +38831,13 @@
         <v>555</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="12" t="s">
@@ -38593,7 +38846,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="16" ht="127" customHeight="1" spans="1:9">
@@ -38601,13 +38854,13 @@
         <v>556</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="12" t="s">
@@ -38616,7 +38869,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="17" ht="127" customHeight="1" spans="1:9">
@@ -38624,20 +38877,20 @@
         <v>557</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
@@ -38649,13 +38902,13 @@
         <v>558</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="12" t="s">
@@ -38664,7 +38917,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="19" ht="127" customHeight="1" spans="1:9">
@@ -38672,13 +38925,13 @@
         <v>559</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
@@ -38687,7 +38940,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="20" ht="127" customHeight="1" spans="1:9">
@@ -38695,20 +38948,20 @@
         <v>560</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -38720,13 +38973,13 @@
         <v>561</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="12" t="s">
@@ -38735,7 +38988,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="22" ht="127" customHeight="1" spans="1:9">
@@ -38743,13 +38996,13 @@
         <v>562</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="12" t="s">
@@ -38758,7 +39011,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="23" ht="127" customHeight="1" spans="1:9">
@@ -38766,20 +39019,20 @@
         <v>563</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -38791,13 +39044,13 @@
         <v>564</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="12" t="s">
@@ -38806,7 +39059,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" ht="127" customHeight="1" spans="1:9">
@@ -38814,13 +39067,13 @@
         <v>565</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="12" t="s">
@@ -38829,7 +39082,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" ht="216" spans="1:9">
@@ -38837,20 +39090,20 @@
         <v>566</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
@@ -38862,13 +39115,13 @@
         <v>567</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="12" t="s">
@@ -38877,7 +39130,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="28" ht="189" spans="1:9">
@@ -38885,13 +39138,13 @@
         <v>568</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="12" t="s">
@@ -38900,7 +39153,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="29" ht="189" spans="1:9">
@@ -38908,20 +39161,20 @@
         <v>569</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
@@ -38933,13 +39186,13 @@
         <v>570</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="12" t="s">
@@ -38956,13 +39209,13 @@
         <v>571</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="12" t="s">
@@ -38979,20 +39232,20 @@
         <v>572</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5" t="s">
@@ -39004,13 +39257,13 @@
         <v>573</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="12" t="s">
@@ -39019,7 +39272,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="34" ht="189" spans="1:9">
@@ -39027,13 +39280,13 @@
         <v>574</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="12" t="s">
@@ -39042,7 +39295,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="35" ht="189" spans="1:9">
@@ -39050,20 +39303,20 @@
         <v>575</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
@@ -39075,13 +39328,13 @@
         <v>576</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="12" t="s">
@@ -39098,13 +39351,13 @@
         <v>577</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="12" t="s">
@@ -39121,20 +39374,20 @@
         <v>578</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -39146,13 +39399,13 @@
         <v>579</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="12" t="s">
@@ -39161,7 +39414,7 @@
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="40" ht="189" spans="1:9">
@@ -39169,13 +39422,13 @@
         <v>580</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="12" t="s">
@@ -39184,7 +39437,7 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="41" ht="229.5" spans="1:9">
@@ -39192,20 +39445,20 @@
         <v>581</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -39217,13 +39470,13 @@
         <v>582</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="12" t="s">
@@ -39240,13 +39493,13 @@
         <v>583</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="12" t="s">
@@ -39263,20 +39516,20 @@
         <v>584</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
@@ -39288,13 +39541,13 @@
         <v>585</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="12" t="s">
@@ -39311,13 +39564,13 @@
         <v>586</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="12" t="s">
@@ -39334,20 +39587,20 @@
         <v>587</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
@@ -39359,13 +39612,13 @@
         <v>588</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="12" t="s">
@@ -39374,7 +39627,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="23" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="49" ht="189" spans="1:9">
@@ -39382,13 +39635,13 @@
         <v>589</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="12" t="s">
@@ -39397,7 +39650,7 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="50" ht="189" spans="1:9">
@@ -39405,20 +39658,20 @@
         <v>590</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -39430,13 +39683,13 @@
         <v>591</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="12" t="s">
@@ -39445,7 +39698,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="52" ht="189" spans="1:9">
@@ -39453,13 +39706,13 @@
         <v>592</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="12" t="s">
@@ -39468,7 +39721,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="23" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="53" ht="229.5" spans="1:9">
@@ -39476,20 +39729,20 @@
         <v>593</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
@@ -39501,13 +39754,13 @@
         <v>594</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="12" t="s">
@@ -39524,13 +39777,13 @@
         <v>595</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="12" t="s">
@@ -39547,20 +39800,20 @@
         <v>596</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
@@ -39572,13 +39825,13 @@
         <v>597</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="12" t="s">
@@ -39587,7 +39840,7 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="58" ht="229" customHeight="1" spans="1:9">
@@ -39595,13 +39848,13 @@
         <v>598</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="12" t="s">
@@ -39610,7 +39863,7 @@
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="59" ht="189" spans="1:9">
@@ -39618,20 +39871,20 @@
         <v>599</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
@@ -39643,13 +39896,13 @@
         <v>600</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="12" t="s">
@@ -39658,7 +39911,7 @@
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="61" ht="189" spans="1:9">
@@ -39666,13 +39919,13 @@
         <v>601</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="12" t="s">
@@ -39681,7 +39934,7 @@
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="62" ht="108" customHeight="1" spans="1:9">
@@ -39689,20 +39942,20 @@
         <v>602</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>636</v>
@@ -39716,20 +39969,20 @@
         <v>603</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
@@ -39741,13 +39994,13 @@
         <v>604</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="12" t="s">
@@ -39756,7 +40009,7 @@
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="65" ht="189" spans="1:9">
@@ -39764,13 +40017,13 @@
         <v>605</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="12" t="s">
@@ -39779,7 +40032,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="66" ht="189" spans="1:9">
@@ -39787,20 +40040,20 @@
         <v>606</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C66" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
@@ -39812,13 +40065,13 @@
         <v>607</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="12" t="s">
@@ -39835,13 +40088,13 @@
         <v>608</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="12" t="s">
@@ -39858,20 +40111,20 @@
         <v>609</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5" t="s">
@@ -39883,13 +40136,13 @@
         <v>610</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="12" t="s">
@@ -39898,7 +40151,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="71" ht="409.5" spans="1:9">
@@ -39906,13 +40159,13 @@
         <v>611</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="12" t="s">
@@ -39921,7 +40174,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="72" ht="409.5" spans="1:9">
@@ -39929,20 +40182,20 @@
         <v>612</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
@@ -39954,13 +40207,13 @@
         <v>613</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="12" t="s">
@@ -39969,7 +40222,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="74" ht="409.5" spans="1:9">
@@ -39977,13 +40230,13 @@
         <v>614</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="12" t="s">
@@ -39992,7 +40245,7 @@
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="75" ht="409.5" spans="1:9">
@@ -40000,20 +40253,20 @@
         <v>615</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C75" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
@@ -40025,13 +40278,13 @@
         <v>616</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="12" t="s">
@@ -40040,7 +40293,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="77" ht="409.5" spans="1:9">
@@ -40048,13 +40301,13 @@
         <v>617</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="12" t="s">
@@ -40063,7 +40316,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="78" ht="409.5" spans="1:9">
@@ -40071,20 +40324,20 @@
         <v>618</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C78" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
@@ -40096,13 +40349,13 @@
         <v>619</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C79" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="12" t="s">
@@ -40111,7 +40364,7 @@
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="80" ht="409.5" spans="1:9">
@@ -40119,13 +40372,13 @@
         <v>620</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="12" t="s">
@@ -40134,7 +40387,7 @@
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="81" ht="409.5" spans="1:9">
@@ -40142,20 +40395,20 @@
         <v>621</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>639</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5" t="s">
@@ -40167,13 +40420,13 @@
         <v>622</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="12" t="s">
@@ -40182,7 +40435,7 @@
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="83" ht="409.5" spans="1:9">
@@ -40190,13 +40443,13 @@
         <v>623</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="12" t="s">
@@ -40205,7 +40458,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="84" ht="409.5" spans="1:9">
@@ -40213,20 +40466,20 @@
         <v>624</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>639</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5" t="s">
@@ -40238,13 +40491,13 @@
         <v>625</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C85" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="12" t="s">
@@ -40253,7 +40506,7 @@
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="86" ht="409.5" spans="1:9">
@@ -40261,13 +40514,13 @@
         <v>626</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="12" t="s">
@@ -40276,7 +40529,7 @@
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="87" ht="216" spans="1:9">
@@ -40284,20 +40537,20 @@
         <v>627</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>639</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5" t="s">
@@ -40309,13 +40562,13 @@
         <v>628</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C88" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="12" t="s">
@@ -40324,7 +40577,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="89" ht="189" spans="1:9">
@@ -40332,13 +40585,13 @@
         <v>629</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="12" t="s">
@@ -40347,7 +40600,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="90" ht="189" spans="1:9">
@@ -40355,20 +40608,20 @@
         <v>630</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C90" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5" t="s">
@@ -40380,13 +40633,13 @@
         <v>631</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="12" t="s">
@@ -40403,13 +40656,13 @@
         <v>632</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="12" t="s">
@@ -40426,20 +40679,20 @@
         <v>633</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="C93" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5" t="s">
@@ -40451,13 +40704,13 @@
         <v>634</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E94" s="25"/>
       <c r="F94" s="12" t="s">
@@ -40466,7 +40719,7 @@
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="95" ht="189" spans="1:9">
@@ -40474,13 +40727,13 @@
         <v>635</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C95" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E95" s="25"/>
       <c r="F95" s="12" t="s">
@@ -40489,7 +40742,7 @@
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="96" ht="189" spans="1:9">
@@ -40497,20 +40750,20 @@
         <v>636</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C96" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5" t="s">
@@ -40522,13 +40775,13 @@
         <v>637</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C97" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="12" t="s">
@@ -40545,13 +40798,13 @@
         <v>638</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C98" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="12" t="s">
@@ -40568,20 +40821,20 @@
         <v>639</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C99" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
@@ -40593,13 +40846,13 @@
         <v>640</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="12" t="s">
@@ -40608,7 +40861,7 @@
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="101" ht="189" spans="1:9">
@@ -40616,13 +40869,13 @@
         <v>641</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C101" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="12" t="s">
@@ -40631,7 +40884,7 @@
       <c r="G101" s="23"/>
       <c r="H101" s="23"/>
       <c r="I101" s="23" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="102" ht="229.5" spans="1:9">
@@ -40639,20 +40892,20 @@
         <v>642</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C102" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2" t="s">
@@ -40664,13 +40917,13 @@
         <v>643</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E103" s="25"/>
       <c r="F103" s="12" t="s">
@@ -40687,13 +40940,13 @@
         <v>644</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="12" t="s">
@@ -40710,20 +40963,20 @@
         <v>645</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C105" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2" t="s">
@@ -40735,13 +40988,13 @@
         <v>646</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="12" t="s">
@@ -40758,13 +41011,13 @@
         <v>647</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="12" t="s">
@@ -40781,20 +41034,20 @@
         <v>648</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C108" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2" t="s">
@@ -40806,13 +41059,13 @@
         <v>649</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="12" t="s">
@@ -40821,7 +41074,7 @@
       <c r="G109" s="23"/>
       <c r="H109" s="23"/>
       <c r="I109" s="23" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="110" ht="189" spans="1:9">
@@ -40829,13 +41082,13 @@
         <v>650</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="12" t="s">
@@ -40844,7 +41097,7 @@
       <c r="G110" s="23"/>
       <c r="H110" s="23"/>
       <c r="I110" s="23" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="111" ht="189" spans="1:9">
@@ -40852,20 +41105,20 @@
         <v>651</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C111" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2" t="s">
@@ -40877,13 +41130,13 @@
         <v>652</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E112" s="25"/>
       <c r="F112" s="12" t="s">
@@ -40892,7 +41145,7 @@
       <c r="G112" s="23"/>
       <c r="H112" s="23"/>
       <c r="I112" s="23" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="113" ht="189" spans="1:9">
@@ -40900,13 +41153,13 @@
         <v>653</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C113" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E113" s="25"/>
       <c r="F113" s="12" t="s">
@@ -40915,7 +41168,7 @@
       <c r="G113" s="23"/>
       <c r="H113" s="23"/>
       <c r="I113" s="23" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="114" ht="229.5" spans="1:9">
@@ -40923,20 +41176,20 @@
         <v>654</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="C114" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2" t="s">
@@ -40948,13 +41201,13 @@
         <v>655</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E115" s="25"/>
       <c r="F115" s="12" t="s">
@@ -40971,13 +41224,13 @@
         <v>656</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="12" t="s">
@@ -40994,20 +41247,20 @@
         <v>657</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="C117" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2" t="s">
@@ -41019,13 +41272,13 @@
         <v>658</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="12" t="s">
@@ -41034,7 +41287,7 @@
       <c r="G118" s="23"/>
       <c r="H118" s="23"/>
       <c r="I118" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="119" ht="159" customHeight="1" spans="1:9">
@@ -41042,13 +41295,13 @@
         <v>659</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E119" s="25"/>
       <c r="F119" s="12" t="s">
@@ -41057,7 +41310,7 @@
       <c r="G119" s="23"/>
       <c r="H119" s="23"/>
       <c r="I119" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="120" ht="189" spans="1:9">
@@ -41065,20 +41318,20 @@
         <v>660</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C120" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2" t="s">
@@ -41090,13 +41343,13 @@
         <v>661</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E121" s="25"/>
       <c r="F121" s="12" t="s">
@@ -41105,7 +41358,7 @@
       <c r="G121" s="23"/>
       <c r="H121" s="23"/>
       <c r="I121" s="23" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="122" ht="189" spans="1:9">
@@ -41113,13 +41366,13 @@
         <v>662</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E122" s="25"/>
       <c r="F122" s="12" t="s">
@@ -41128,7 +41381,7 @@
       <c r="G122" s="23"/>
       <c r="H122" s="23"/>
       <c r="I122" s="23" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="123" ht="189" spans="1:9">
@@ -41136,13 +41389,13 @@
         <v>663</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>743</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E123" s="8"/>
       <c r="F123" s="5" t="s">
@@ -41159,13 +41412,13 @@
         <v>664</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="12" t="s">
@@ -41182,13 +41435,13 @@
         <v>665</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="5" t="s">
@@ -41205,13 +41458,13 @@
         <v>666</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E126" s="25"/>
       <c r="F126" s="12" t="s">
@@ -41228,23 +41481,23 @@
         <v>668</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>35</v>
@@ -41255,13 +41508,13 @@
         <v>669</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="5" t="s">
@@ -41639,23 +41892,23 @@
         <v>670</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>35</v>
@@ -41666,13 +41919,13 @@
         <v>671</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="17" t="s">
@@ -41681,7 +41934,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:9">
@@ -41689,13 +41942,13 @@
         <v>672</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="12" t="s">
@@ -41704,7 +41957,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:9">
@@ -41712,20 +41965,20 @@
         <v>673</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -41737,13 +41990,13 @@
         <v>674</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="17" t="s">
@@ -41760,13 +42013,13 @@
         <v>675</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="12" t="s">
@@ -41783,20 +42036,20 @@
         <v>676</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -41808,13 +42061,13 @@
         <v>677</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="12" t="s">
@@ -41823,7 +42076,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" ht="144" customHeight="1" spans="1:9">
@@ -41831,13 +42084,13 @@
         <v>678</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="12" t="s">
@@ -41846,7 +42099,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="11" ht="114" customHeight="1" spans="1:9">
@@ -41854,20 +42107,20 @@
         <v>679</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
@@ -41879,13 +42132,13 @@
         <v>680</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="12" t="s">
@@ -41894,7 +42147,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="13" ht="114" customHeight="1" spans="1:9">
@@ -41902,13 +42155,13 @@
         <v>681</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="12" t="s">
@@ -41917,7 +42170,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="14" ht="114" customHeight="1" spans="1:9">
@@ -41925,20 +42178,20 @@
         <v>682</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
@@ -41950,13 +42203,13 @@
         <v>683</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="12" t="s">
@@ -41965,7 +42218,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="16" ht="114" customHeight="1" spans="1:9">
@@ -41973,13 +42226,13 @@
         <v>684</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="12" t="s">
@@ -41988,7 +42241,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="17" ht="114" customHeight="1" spans="1:9">
@@ -41996,20 +42249,20 @@
         <v>685</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
@@ -42021,13 +42274,13 @@
         <v>686</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="12" t="s">
@@ -42036,7 +42289,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="19" ht="114" customHeight="1" spans="1:9">
@@ -42044,13 +42297,13 @@
         <v>687</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="12" t="s">
@@ -42059,7 +42312,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="20" ht="114" customHeight="1" spans="1:9">
@@ -42067,20 +42320,20 @@
         <v>688</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -42092,13 +42345,13 @@
         <v>689</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="12" t="s">
@@ -42107,7 +42360,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="22" ht="114" customHeight="1" spans="1:9">
@@ -42115,13 +42368,13 @@
         <v>690</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="12" t="s">
@@ -42130,7 +42383,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="23" ht="114" customHeight="1" spans="1:9">
@@ -42138,20 +42391,20 @@
         <v>691</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -42163,13 +42416,13 @@
         <v>692</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="12" t="s">
@@ -42178,7 +42431,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="25" ht="114" customHeight="1" spans="1:9">
@@ -42186,13 +42439,13 @@
         <v>693</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="12" t="s">
@@ -42201,7 +42454,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" ht="216" spans="1:9">
@@ -42209,20 +42462,20 @@
         <v>694</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
@@ -42234,13 +42487,13 @@
         <v>695</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="17" t="s">
@@ -42249,7 +42502,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="28" ht="117" customHeight="1" spans="1:9">
@@ -42257,13 +42510,13 @@
         <v>696</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="12" t="s">
@@ -42272,7 +42525,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="29" ht="189" spans="1:9">
@@ -42280,20 +42533,20 @@
         <v>697</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
@@ -42305,13 +42558,13 @@
         <v>698</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="17" t="s">
@@ -42320,7 +42573,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="31" ht="189" spans="1:9">
@@ -42328,13 +42581,13 @@
         <v>699</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="12" t="s">
@@ -42343,7 +42596,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="17" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="32" ht="189" spans="1:9">
@@ -42351,20 +42604,20 @@
         <v>700</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -42376,13 +42629,13 @@
         <v>701</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
@@ -42391,7 +42644,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="34" ht="189" spans="1:9">
@@ -42399,13 +42652,13 @@
         <v>702</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="12" t="s">
@@ -42414,7 +42667,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="35" ht="189" spans="1:9">
@@ -42422,20 +42675,20 @@
         <v>703</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
@@ -42447,13 +42700,13 @@
         <v>704</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17" t="s">
@@ -42470,13 +42723,13 @@
         <v>705</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="12" t="s">
@@ -42493,20 +42746,20 @@
         <v>706</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -42518,13 +42771,13 @@
         <v>707</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="17" t="s">
@@ -42533,7 +42786,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="40" ht="189" spans="1:9">
@@ -42541,13 +42794,13 @@
         <v>708</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="12" t="s">
@@ -42556,7 +42809,7 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="41" ht="189" spans="1:9">
@@ -42564,20 +42817,20 @@
         <v>709</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -42589,13 +42842,13 @@
         <v>710</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="17" t="s">
@@ -42604,7 +42857,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="43" ht="189" spans="1:9">
@@ -42612,13 +42865,13 @@
         <v>711</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="12" t="s">
@@ -42627,7 +42880,7 @@
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="44" ht="229.5" spans="1:9">
@@ -42635,20 +42888,20 @@
         <v>712</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
@@ -42660,13 +42913,13 @@
         <v>713</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="17" t="s">
@@ -42683,13 +42936,13 @@
         <v>714</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="12" t="s">
@@ -42706,20 +42959,20 @@
         <v>715</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
@@ -42731,13 +42984,13 @@
         <v>716</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="17" t="s">
@@ -42746,7 +42999,7 @@
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="49" ht="220" customHeight="1" spans="1:9">
@@ -42754,13 +43007,13 @@
         <v>717</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="12" t="s">
@@ -42769,7 +43022,7 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="50" ht="189" spans="1:9">
@@ -42777,20 +43030,20 @@
         <v>718</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -42802,13 +43055,13 @@
         <v>719</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E51" s="16"/>
       <c r="F51" s="17" t="s">
@@ -42817,7 +43070,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="52" ht="189" spans="1:9">
@@ -42825,13 +43078,13 @@
         <v>720</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="12" t="s">
@@ -42840,7 +43093,7 @@
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="53" ht="108" customHeight="1" spans="1:9">
@@ -42848,20 +43101,20 @@
         <v>721</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>636</v>
@@ -42875,20 +43128,20 @@
         <v>722</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5" t="s">
@@ -42900,13 +43153,13 @@
         <v>723</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="17" t="s">
@@ -42915,7 +43168,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
       <c r="I55" s="12" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="56" ht="122" customHeight="1" spans="1:9">
@@ -42923,13 +43176,13 @@
         <v>724</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="12" t="s">
@@ -42938,7 +43191,7 @@
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="57" ht="189" spans="1:9">
@@ -42946,20 +43199,20 @@
         <v>725</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
@@ -42971,13 +43224,13 @@
         <v>726</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="17" t="s">
@@ -42994,13 +43247,13 @@
         <v>727</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="12" t="s">
@@ -43017,20 +43270,20 @@
         <v>728</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
@@ -43042,13 +43295,13 @@
         <v>729</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="12" t="s">
@@ -43057,7 +43310,7 @@
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="62" ht="90" customHeight="1" spans="1:9">
@@ -43065,13 +43318,13 @@
         <v>730</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="12" t="s">
@@ -43080,7 +43333,7 @@
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="63" ht="90" customHeight="1" spans="1:9">
@@ -43088,20 +43341,20 @@
         <v>731</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
@@ -43113,13 +43366,13 @@
         <v>732</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="12" t="s">
@@ -43128,7 +43381,7 @@
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="65" ht="90" customHeight="1" spans="1:9">
@@ -43136,13 +43389,13 @@
         <v>733</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="12" t="s">
@@ -43151,7 +43404,7 @@
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="66" ht="90" customHeight="1" spans="1:9">
@@ -43159,20 +43412,20 @@
         <v>734</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C66" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
@@ -43184,13 +43437,13 @@
         <v>735</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="12" t="s">
@@ -43199,7 +43452,7 @@
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="68" ht="90" customHeight="1" spans="1:9">
@@ -43207,13 +43460,13 @@
         <v>736</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="12" t="s">
@@ -43222,7 +43475,7 @@
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="69" ht="90" customHeight="1" spans="1:9">
@@ -43230,20 +43483,20 @@
         <v>737</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5" t="s">
@@ -43255,13 +43508,13 @@
         <v>738</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="12" t="s">
@@ -43270,7 +43523,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="71" ht="90" customHeight="1" spans="1:9">
@@ -43278,13 +43531,13 @@
         <v>739</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="12" t="s">
@@ -43293,7 +43546,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="72" ht="90" customHeight="1" spans="1:9">
@@ -43301,20 +43554,20 @@
         <v>740</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
@@ -43326,13 +43579,13 @@
         <v>741</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="12" t="s">
@@ -43341,7 +43594,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="74" ht="90" customHeight="1" spans="1:9">
@@ -43349,13 +43602,13 @@
         <v>742</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="12" t="s">
@@ -43364,7 +43617,7 @@
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="75" ht="90" customHeight="1" spans="1:9">
@@ -43372,20 +43625,20 @@
         <v>743</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C75" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
@@ -43397,13 +43650,13 @@
         <v>744</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="12" t="s">
@@ -43412,7 +43665,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="77" ht="90" customHeight="1" spans="1:9">
@@ -43420,13 +43673,13 @@
         <v>745</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C77" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="12" t="s">
@@ -43435,7 +43688,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="78" ht="216" spans="1:9">
@@ -43443,20 +43696,20 @@
         <v>746</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C78" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
@@ -43468,13 +43721,13 @@
         <v>747</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="17" t="s">
@@ -43483,7 +43736,7 @@
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
       <c r="I79" s="17" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="80" ht="189" spans="1:9">
@@ -43491,13 +43744,13 @@
         <v>748</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="12" t="s">
@@ -43506,7 +43759,7 @@
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="81" ht="189" spans="1:9">
@@ -43514,20 +43767,20 @@
         <v>749</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C81" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5" t="s">
@@ -43539,13 +43792,13 @@
         <v>750</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="17" t="s">
@@ -43554,7 +43807,7 @@
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="83" ht="189" spans="1:9">
@@ -43562,13 +43815,13 @@
         <v>751</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="C83" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="12" t="s">
@@ -43577,7 +43830,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="17" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="84" ht="189" spans="1:9">
@@ -43585,20 +43838,20 @@
         <v>752</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>639</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2" t="s">
@@ -43610,13 +43863,13 @@
         <v>753</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="17" t="s">
@@ -43625,7 +43878,7 @@
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="86" ht="189" spans="1:9">
@@ -43633,13 +43886,13 @@
         <v>754</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="12" t="s">
@@ -43648,7 +43901,7 @@
       <c r="G86" s="23"/>
       <c r="H86" s="23"/>
       <c r="I86" s="14" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="87" ht="189" spans="1:9">
@@ -43656,20 +43909,20 @@
         <v>755</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="C87" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
@@ -43681,13 +43934,13 @@
         <v>756</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
@@ -43704,13 +43957,13 @@
         <v>757</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="12" t="s">
@@ -43727,20 +43980,20 @@
         <v>758</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="C90" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
@@ -43752,13 +44005,13 @@
         <v>759</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="17" t="s">
@@ -43767,7 +44020,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="92" ht="189" spans="1:9">
@@ -43775,13 +44028,13 @@
         <v>760</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="12" t="s">
@@ -43790,7 +44043,7 @@
       <c r="G92" s="23"/>
       <c r="H92" s="23"/>
       <c r="I92" s="23" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="93" ht="189" spans="1:9">
@@ -43798,20 +44051,20 @@
         <v>761</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C93" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
@@ -43823,13 +44076,13 @@
         <v>762</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="17" t="s">
@@ -43838,7 +44091,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="95" ht="189" spans="1:9">
@@ -43846,13 +44099,13 @@
         <v>763</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C95" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E95" s="25"/>
       <c r="F95" s="12" t="s">
@@ -43861,7 +44114,7 @@
       <c r="G95" s="23"/>
       <c r="H95" s="23"/>
       <c r="I95" s="23" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="96" ht="229.5" spans="1:9">
@@ -43869,20 +44122,20 @@
         <v>764</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C96" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
@@ -43894,13 +44147,13 @@
         <v>765</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="17" t="s">
@@ -43917,13 +44170,13 @@
         <v>766</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="C98" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E98" s="25"/>
       <c r="F98" s="12" t="s">
@@ -43940,20 +44193,20 @@
         <v>767</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C99" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
@@ -43965,13 +44218,13 @@
         <v>768</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E100" s="16"/>
       <c r="F100" s="17" t="s">
@@ -43980,7 +44233,7 @@
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="101" ht="219" customHeight="1" spans="1:9">
@@ -43988,13 +44241,13 @@
         <v>769</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C101" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="12" t="s">
@@ -44003,7 +44256,7 @@
       <c r="G101" s="23"/>
       <c r="H101" s="23"/>
       <c r="I101" s="23" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="102" ht="189" spans="1:9">
@@ -44011,20 +44264,20 @@
         <v>770</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C102" s="27" t="s">
         <v>639</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2" t="s">
@@ -44036,13 +44289,13 @@
         <v>771</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
@@ -44051,7 +44304,7 @@
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="104" ht="148" customHeight="1" spans="1:9">
@@ -44059,13 +44312,13 @@
         <v>772</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="12" t="s">
@@ -44074,7 +44327,7 @@
       <c r="G104" s="23"/>
       <c r="H104" s="23"/>
       <c r="I104" s="14" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="105" ht="189" spans="1:9">
@@ -44082,13 +44335,13 @@
         <v>773</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>743</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="5" t="s">
@@ -44105,13 +44358,13 @@
         <v>774</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
@@ -44128,13 +44381,13 @@
         <v>775</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="5" t="s">
@@ -44151,13 +44404,13 @@
         <v>776</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
@@ -44174,23 +44427,23 @@
         <v>778</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>35</v>
@@ -44201,13 +44454,13 @@
         <v>779</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="5" t="s">

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -12403,7 +12403,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12411,7 +12411,13 @@
         ],
         "shippingModeCode": "TPM_ROAD",
         "transnationalShipment":False
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12430,7 +12436,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12438,7 +12444,13 @@
         ],
         "shippingModeCode": "TPM_RAIL",
         "transnationalShipment":False
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12457,7 +12469,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12465,7 +12477,13 @@
         ],
         "shippingModeCode": "TPM_SEA",
         "transnationalShipment":False
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12484,7 +12502,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12492,7 +12510,13 @@
         ],
         "shippingModeCode": "TPM_AIR",
         "transnationalShipment":False
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12511,7 +12535,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12519,7 +12543,13 @@
         ],
         "shippingModeCode": "TPM_AIR",
         "transnationalShipment":True
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12538,7 +12568,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12546,7 +12576,13 @@
         ],
         "shippingModeCode": "TPM_SEA",
         "transnationalShipment":True
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12565,7 +12601,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12573,7 +12609,13 @@
         ],
         "shippingModeCode": "TPM_EXPRESS",
         "transnationalShipment":False
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12592,7 +12634,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12600,7 +12642,13 @@
         ],
         "shippingModeCode": "TPM_EXPRESS",
         "transnationalShipment":True
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -15513,10 +15561,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -15547,7 +15595,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15569,27 +15683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -15607,12 +15700,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -15623,21 +15717,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15654,37 +15733,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15717,7 +15765,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15729,145 +15891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15885,19 +15915,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15922,78 +15970,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16023,6 +15999,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -16031,10 +16079,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16043,133 +16091,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16644,7 +16692,7 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -18938,8 +18986,8 @@
   <sheetPr/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -2581,7 +2581,7 @@
     },
     "pagingCondition": {
         "pageIndex": 1,
-        "pageSize": 100
+        "pageSize": 1
     }
 }</t>
   </si>
@@ -13279,8 +13279,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -13313,30 +13313,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13350,53 +13349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13419,7 +13372,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -13433,8 +13386,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13447,9 +13448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13482,7 +13482,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13494,13 +13530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13512,13 +13560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13530,13 +13578,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13548,13 +13638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13566,103 +13662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13691,50 +13691,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -13759,17 +13715,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13788,6 +13753,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13796,10 +13796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13808,133 +13808,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18280,8 +18280,8 @@
   <sheetPr/>
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="1845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="1843">
   <si>
     <t>case_id</t>
   </si>
@@ -12615,652 +12615,6 @@
 ]</t>
   </si>
   <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${internat_reference_order_id}"
-   }
-  ],
- "remarks": "123456asdfasdf",
-"shippingInfo": {
- "shipper":{                                           
-          "contactPartnerId": "${internat_shipper_contactPartnerId}",    
-          "contactPartnerName": "${internat_shipper_contactPartnerName}",  
-                     "contactPartnerType": "${internat_shipper_contactPartnerType}",  
-           "addressAbbreviation": "${internat_shipper_addressAbbreviation}",
-          "addressCode": "${internat_shipper_addressCode}",         
-          "countryCode": "${internat_shipper_countryCode}",         
-                     "countryName": "${internat_shipper_countryName}",         
-          "provinceCode": "${internat_shipper_provinceCode}",        
-                     "provinceName": "${internat_shipper_provinceName}",        
-          "cityCode": "${internat_shipper_cityCode}",            
-                     "cityName": "${internat_shipper_cityName}",            
-          "districtCode": "${internat_shipper_districtCode}",        
-                     "districtName": "${internat_shipper_districtName}",        
-          "streetCode": "${internat_shipper_streetCode}",          
-                     "streetName": "${internat_shipper_streetName}",          
-          "addressDetail": "${internat_shipper_addressDetail}",       
-          "postCode": "${internat_shipper_postCode}",            
-          "contactName": "${internat_shipper_contactName}",         
-          "telephoneArea": "${internat_shipper_telephoneArea}",        
-                     "telephoneNumber": "${internat_shipper_telephoneNumber}",     
-          "mobileNumber": "${internat_shipper_mobileNumber}",        
-                     "mobileArea": "${internat_shipper_mobileArea}",          
-          "email": "${internat_shipper_email}" ,
-   "transportLocationCode": "${internat_shipper_transportLocationCode}",
-   "isDefault": True,
- "isInternationalPartner": True
-          }  ,                                                              
-   "pickUp":True,
-   "marksAndNumbers":"${@CHAR}",
-   "shippingAddress":{                                        
-   "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
-   "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
-   "addressCode": "${internat_shippingAddress_addressCode}",              
-   "countryCode": "${internat_shippingAddress_countryCode}",              
-      "countryName": "${internat_shippingAddress_countryName}",              
-   "provinceCode": "${internat_shippingAddress_provinceCode}",             
-      "provinceName": "${internat_shippingAddress_provinceName}",             
-   "cityCode": "${internat_shippingAddress_cityCode}",                 
-      "cityName": "${internat_shippingAddress_cityName}",                 
-   "districtCode": "${internat_shippingAddress_districtCode}",             
-      "districtName": "${internat_shippingAddress_districtName}",             
-   "streetCode": "${internat_shippingAddress_streetCode}",               
-      "streetName": "${internat_shippingAddress_streetName}",               
-   "addressDetail": "${internat_shippingAddress_addressDetail}",            
-   "postCode": "${internat_shippingAddress_postCode}",                 
-   "contactName": "${internat_shippingAddress_contactName}",              
-   "telephoneArea": "${internat_shippingAddress_telephoneArea}",             
-      "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
-   "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
-      "mobileArea": "${internat_shippingAddress_mobileArea}",               
-   "email": "${internat_shippingAddress_email}" ,
- "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
- "isDefault": False,
-"isInternationalPartner": True
-    },
- "consignee":{                                         
-         "contactPartnerId": "${internat_consignee_contactPartnerId}",    
-         "contactPartnerName": "${internat_consignee_contactPartnerName}",  
-                   "contactPartnerType": "${internat_consignee_contactPartnerType}",  
-         "addressAbbreviation": "${internat_consignee_addressAbbreviation}",
-         "addressCode": "${internat_consignee_addressCode}",         
-         "countryCode": "${internat_consignee_countryCode}",         
-                   "countryName": "${internat_consignee_countryName}",         
-         "provinceCode": "${internat_consignee_provinceCode}",        
-                   "provinceName": "${internat_consignee_provinceName}",        
-         "cityCode": "${internat_consignee_cityCode}",            
-                   "cityName": "${internat_consignee_cityName}",            
-         "districtCode": "${internat_consignee_districtCode}",        
-                   "districtName": "${internat_consignee_districtName}",        
-         "streetCode": "${internat_consignee_streetCode}",          
-                   "streetName": "${internat_consignee_streetName}",          
-         "addressDetail": "${internat_consignee_addressDetail}",       
-         "postCode": "${internat_consignee_postCode}",            
-         "contactName": "${internat_consignee_contactName}",         
-         "telephoneArea": "${internat_consignee_telephoneArea}",        
-                   "telephoneNumber": "${internat_consignee_telephoneNumber}",     
-         "mobileNumber": "${internat_consignee_mobileNumber}",        
-                   "mobileArea": "${internat_consignee_mobileArea}",          
-         "email": "${internat_consignee_email}" ,
-  "transportLocationCode": "${internat_consignee_transportLocationCode}" ,
-  "isDefault": True,
-"isInternationalPartner": True
-     } ,                                                                          
- "takeDelivery":True,
- "receivingAddress":{                                    
-  "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
-  "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
-  "addressCode": "${internat_receivingAddress_addressCode}",             
-  "countryCode": "${internat_receivingAddress_countryCode}",             
-   "countryName": "${internat_receivingAddress_countryName}",              
-  "provinceCode": "${internat_receivingAddress_provinceCode}",            
-   "provinceName": "${internat_receivingAddress_provinceName}",             
-  "cityCode": "${internat_receivingAddress_cityCode}",                
-   "cityName": "${internat_receivingAddress_cityName}",                 
-  "districtCode": "${internat_receivingAddress_districtCode}",            
-   "districtName": "${internat_receivingAddress_districtName}",             
-  "streetCode": "${internat_receivingAddress_streetCode}",              
-   "streetName": "${internat_receivingAddress_streetName}",               
-  "addressDetail": "${internat_receivingAddress_addressDetail}",           
-  "postCode": "${internat_receivingAddress_postCode}",                
-  "contactName": "${internat_receivingAddress_contactName}",             
-  "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
-   "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
-  "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
-   "mobileArea": "${internat_receivingAddress_mobileArea}",               
- "email": "${internat_receivingAddress_email}",
-"transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
-"isDefault": False,
-"isInternationalPartner": True 
-    },
- "notifyParty":{                                
-    "contactPartnerId": "${internat_notifyParty_contactPartnerId}",    
-    "contactPartnerName": "${internat_notifyParty_contactPartnerName}",  
-        "contactPartnerType": "${internat_notifyParty_contactPartnerType}",  
-    "addressAbbreviation": "${internat_notifyParty_addressAbbreviation}",
-    "addressCode": "${internat_notifyParty_addressCode}",         
-    "countryCode": "${internat_notifyParty_countryCode}",         
-        "countryName": "${internat_notifyParty_countryName}",         
-    "provinceCode": "${internat_notifyParty_provinceCode}",        
-        "provinceName": "${internat_notifyParty_provinceName}",        
-    "cityCode": "${internat_notifyParty_cityCode}",            
-        "cityName": "${internat_notifyParty_cityName}",            
-    "districtCode": "${internat_notifyParty_districtCode}",        
-        "districtName": "${internat_notifyParty_districtName}",        
-    "streetCode": "${internat_notifyParty_streetCode}",          
-        "streetName": "${internat_notifyParty_streetName}",          
-    "addressDetail": "${internat_notifyParty_addressDetail}",       
-    "postCode": "${internat_notifyParty_postCode}",            
-    "contactName": "${internat_notifyParty_contactName}",         
-    "telephoneArea": "${internat_notifyParty_telephoneArea}",        
-        "telephoneNumber": "${internat_notifyParty_telephoneNumber}",     
-    "mobileNumber": "${internat_notifyParty_mobileNumber}",        
-        "mobileArea": "${internat_notifyParty_mobileArea}",          
-    "email": "${internat_notifyParty_email}"  ,
- "transportLocationCode": "${internat_notifyParty_transportLocationCode}" ,
- "isDefault": True,
-"isInternationalPartner": True
-    },
-   "entrustedParty":{                            
-  "contactPartnerId": "${internat_entrustedParty_contactPartnerId}",   
-  "contactPartnerName": "${internat_entrustedParty_contactPartnerName}", 
-   "contactPartnerType": "${internat_entrustedParty_contactPartnerType}",  
-  "addressAbbreviation": "${internat_entrustedParty_addressAbbreviation}",
-  "addressCode": "${internat_entrustedParty_addressCode}",        
-  "countryCode": "${internat_entrustedParty_countryCode}",        
-   "countryName": "${internat_entrustedParty_countryName}",         
-  "provinceCode": "${internat_entrustedParty_provinceCode}",       
-   "provinceName": "${internat_entrustedParty_provinceName}",        
-  "cityCode": "${internat_entrustedParty_cityCode}",           
-   "cityName": "${internat_entrustedParty_cityName}",            
-  "districtCode": "${internat_entrustedParty_districtCode}",       
-   "districtName": "${internat_entrustedParty_districtName}",        
-  "streetCode": "${internat_entrustedParty_streetCode}",         
-   "streetName": "${internat_entrustedParty_streetName}",          
-  "addressDetail": "${internat_entrustedParty_addressDetail}",      
-  "postCode": "${internat_entrustedParty_postCode}",           
-  "contactName": "${internat_entrustedParty_contactName}",        
-  "telephoneArea": "${internat_entrustedParty_telephoneArea}",       
-   "telephoneNumber": "${internat_entrustedParty_telephoneNumber}",     
-  "mobileNumber": "${internat_entrustedParty_mobileNumber}",       
-   "mobileArea": "${internat_entrustedParty_mobileArea}",          
- "email": "${internat_entrustedParty_email}" ,
- "transportLocationCode": "${internat_entrustedParty_transportLocationCode}" ,
- "isDefault": True,
-"isInternationalPartner": True
-   } ,
-   "originCityId": "${internat_cityCode_1}",
-   "originLocationCode":"${five_word_id_3}",
-   "destinationCityId": "${internat_cityCode_2}",
-   "destinationLocationCode":"${five_word_id_4}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "etd": 1657784368000,
-   "eta": 1689320368000,
-   "serviceModeCode": "${internat_air_server_type_id}",
-   "paymentTypeCode": "${paying_types_id}",
-    "incotermsCode":"${incoterms_id}",
- "airTransportationNode": {
-   "designatedAirport": True,
-   "dischargeAirportId": "${air_dest_id}",
-   "originAirportId": "${air_origin_id}"
-  },
-  "billOfLadingTypeCode":"${air_lading_type}",
-   "partialShipmentAllowed":True,
-   "transhipmentAllowed":True
-},
-"cargoInfo": {
-  "dangerousCargo":True,
-  "cargoTypeCode":"${cargo_types_id}",
-  "grossWeight": 12.86,
-  "grossWeightUnitCode": "${weight_unit_type}",
-  "pieceQty": 11,
-  "pieceQtyUnitCode": "${package_unit_types_id}",
-  "totalPackageQty": 12,
-  "totalPackageQtyUnitCode": "${package_unit_types_id}",
-  "totalVolume": 13,
-  "totalVolumeUnitCode": "${volume_unit_type}",
-  "bulkCartonQty": 14,
-  "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-  "cargoDescription": "1231456asdfasdfasdkfj!",
-  "cargoInfoLines": [
-   {
-   "dangerousCargo":True,
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55",
-  "cargoQuantity": 1000
-   },
-   {
-   "dangerousCargo":True,
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55",
-  "cargoQuantity": 1000
-   },
-   {
-   "dangerousCargo":True,
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55",
-  "cargoQuantity": 1000
-   },
-   {
-   "dangerousCargo":True,
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55",
-  "cargoQuantity": 1000
-   }
-  ]
- },
-  "valueAddedBusiness": {
-  "cargoValue": 10,
-  "currencyCode": "${currencyCode}",
-  "insurance": True,
-  "entrustCustomsDeclaration": True,
-  "insuredValue":11
- },
-"attachments": $__attachment{internat_air},
-"documentsAttachesGenerate":{
- "letterOfAttorneyGenerate":True
-}
-}</t>
-  </si>
-  <si>
-    <t>{
-"remarks": "123456asdfasdf",
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${internat_reference_order_id}"
-   }
-  ],
-"shippingInfo": {
-  "partialShipmentAllowed":True,
-   "selfProvidedCabinet":True,
-   "transhipmentAllowed":True, 
-  "seaTransportationNode": {
-   "designatedSeaport": True,
-   "originSeaportId": "${sea_origin_id}",
-   "dischargeSeaportId": "${sea_dest_id}"
-  }, 
-  "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-  "etd": 1657784368000,
-   "eta": 1689320368000,
-   "loadingTypeCode": "${internat_sea_load_type_id}",
-   "serviceModeCode": "${internat_sea_server_type_id}",
-   "paymentTypeCode": "${paying_types_id}",
-   "incotermsCode":"${incoterms_id}",
-   "billOfLadingTypeCode":"${sea_lading_type}",
-   "partialShipmentAllowed":True,
-   "selfProvidedCabinet":True,
-   "transhipmentAllowed":True
- ,
-   "containerInfos": [
-   {
-    "containerSizeCode": "${internat_container_specification_id}",
-    "containerSizeName": "${internat_container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   },
-   {
-    "containerSizeCode": "${internat_container_specification_id}",
-    "containerSizeName": "${internat_container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 88
-   },
-   {
-    "containerSizeCode": "${internat_container_specification_id}",
-    "containerSizeName": "${internat_container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 99
-   }
-  ],
-     "originCityId": "${internat_cityCode_1}",
-   "originLocationCode":"${five_word_id_3}",
-   "destinationCityId": "${internat_cityCode_2}",
-   "destinationLocationCode":"${five_word_id_4}",
-   "shipper":{                                           
-          "contactPartnerId": "${internat_shipper_contactPartnerId}",    
-          "contactPartnerName": "${internat_shipper_contactPartnerName}",  
-                     "contactPartnerType": "${internat_shipper_contactPartnerType}",  
-           "addressAbbreviation": "${internat_shipper_addressAbbreviation}",
-          "addressCode": "${internat_shipper_addressCode}",         
-          "countryCode": "${internat_shipper_countryCode}",         
-                     "countryName": "${internat_shipper_countryName}",         
-          "provinceCode": "${internat_shipper_provinceCode}",        
-                     "provinceName": "${internat_shipper_provinceName}",        
-          "cityCode": "${internat_shipper_cityCode}",            
-                     "cityName": "${internat_shipper_cityName}",            
-          "districtCode": "${internat_shipper_districtCode}",        
-                     "districtName": "${internat_shipper_districtName}",        
-          "streetCode": "${internat_shipper_streetCode}",          
-                     "streetName": "${internat_shipper_streetName}",          
-          "addressDetail": "${internat_shipper_addressDetail}",       
-          "postCode": "${internat_shipper_postCode}",            
-          "contactName": "${internat_shipper_contactName}",         
-          "telephoneArea": "${internat_shipper_telephoneArea}",        
-                     "telephoneNumber": "${internat_shipper_telephoneNumber}",     
-          "mobileNumber": "${internat_shipper_mobileNumber}",        
-                     "mobileArea": "${internat_shipper_mobileArea}",          
-          "email": "${internat_shipper_email}" ,
-     "transportLocationCode": "${internat_shipper_transportLocationCode}" ,
-  "isDefault": True,
- "isInternationalPartner": True
-          }  ,                                                              
-   "pickUp":True,
-   "marksAndNumbers":"${@CHAR}",
-   "shippingAddress":{                                        
-   "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
-   "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
-   "addressCode": "${internat_shippingAddress_addressCode}",              
-   "countryCode": "${internat_shippingAddress_countryCode}",              
-      "countryName": "${internat_shippingAddress_countryName}",              
-   "provinceCode": "${internat_shippingAddress_provinceCode}",             
-      "provinceName": "${internat_shippingAddress_provinceName}",             
-   "cityCode": "${internat_shippingAddress_cityCode}",                 
-      "cityName": "${internat_shippingAddress_cityName}",                 
-   "districtCode": "${internat_shippingAddress_districtCode}",             
-      "districtName": "${internat_shippingAddress_districtName}",             
-   "streetCode": "${internat_shippingAddress_streetCode}",               
-      "streetName": "${internat_shippingAddress_streetName}",               
-   "addressDetail": "${internat_shippingAddress_addressDetail}",            
-   "postCode": "${internat_shippingAddress_postCode}",                 
-   "contactName": "${internat_shippingAddress_contactName}",              
-   "telephoneArea": "${internat_shippingAddress_telephoneArea}",             
-      "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
-   "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
-      "mobileArea": "${internat_shippingAddress_mobileArea}",               
-   "email": "${internat_shippingAddress_email}" ,
- "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
- "isDefault": False,
-"isInternationalPartner": True
-    },
- "consignee":{                                         
-         "contactPartnerId": "${internat_consignee_contactPartnerId}",    
-         "contactPartnerName": "${internat_consignee_contactPartnerName}",  
-                   "contactPartnerType": "${internat_consignee_contactPartnerType}",  
-         "addressAbbreviation": "${internat_consignee_addressAbbreviation}",
-         "addressCode": "${internat_consignee_addressCode}",         
-         "countryCode": "${internat_consignee_countryCode}",         
-                   "countryName": "${internat_consignee_countryName}",         
-         "provinceCode": "${internat_consignee_provinceCode}",        
-                   "provinceName": "${internat_consignee_provinceName}",        
-         "cityCode": "${internat_consignee_cityCode}",            
-                   "cityName": "${internat_consignee_cityName}",            
-         "districtCode": "${internat_consignee_districtCode}",        
-                   "districtName": "${internat_consignee_districtName}",        
-         "streetCode": "${internat_consignee_streetCode}",          
-                   "streetName": "${internat_consignee_streetName}",          
-         "addressDetail": "${internat_consignee_addressDetail}",       
-         "postCode": "${internat_consignee_postCode}",            
-         "contactName": "${internat_consignee_contactName}",         
-         "telephoneArea": "${internat_consignee_telephoneArea}",        
-                   "telephoneNumber": "${internat_consignee_telephoneNumber}",     
-         "mobileNumber": "${internat_consignee_mobileNumber}",        
-                   "mobileArea": "${internat_consignee_mobileArea}",          
-         "email": "${internat_consignee_email}" ,
-  "transportLocationCode": "${internat_consignee_transportLocationCode}",
-  "isDefault": True,
-  "isInternationalPartner": True
-     } ,                                                                          
- "takeDelivery":True,
- "receivingAddress":{                                    
-  "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
-  "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
-  "addressCode": "${internat_receivingAddress_addressCode}",             
-  "countryCode": "${internat_receivingAddress_countryCode}",             
-   "countryName": "${internat_receivingAddress_countryName}",              
-  "provinceCode": "${internat_receivingAddress_provinceCode}",            
-   "provinceName": "${internat_receivingAddress_provinceName}",             
-  "cityCode": "${internat_receivingAddress_cityCode}",                
-   "cityName": "${internat_receivingAddress_cityName}",                 
-  "districtCode": "${internat_receivingAddress_districtCode}",            
-   "districtName": "${internat_receivingAddress_districtName}",             
-  "streetCode": "${internat_receivingAddress_streetCode}",              
-   "streetName": "${internat_receivingAddress_streetName}",               
-  "addressDetail": "${internat_receivingAddress_addressDetail}",           
-  "postCode": "${internat_receivingAddress_postCode}",                
-  "contactName": "${internat_receivingAddress_contactName}",             
-  "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
-   "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
-  "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
-   "mobileArea": "${internat_receivingAddress_mobileArea}",               
- "email": "${internat_receivingAddress_email}" ,
- "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
- "isDefault": False,
-"isInternationalPartner": True
-    },
- "notifyParty":{                                
-    "contactPartnerId": "${internat_notifyParty_contactPartnerId}",    
-    "contactPartnerName": "${internat_notifyParty_contactPartnerName}",  
-        "contactPartnerType": "${internat_notifyParty_contactPartnerType}",  
-    "addressAbbreviation": "${internat_notifyParty_addressAbbreviation}",
-    "addressCode": "${internat_notifyParty_addressCode}",         
-    "countryCode": "${internat_notifyParty_countryCode}",         
-        "countryName": "${internat_notifyParty_countryName}",         
-    "provinceCode": "${internat_notifyParty_provinceCode}",        
-        "provinceName": "${internat_notifyParty_provinceName}",        
-    "cityCode": "${internat_notifyParty_cityCode}",            
-        "cityName": "${internat_notifyParty_cityName}",            
-    "districtCode": "${internat_notifyParty_districtCode}",        
-        "districtName": "${internat_notifyParty_districtName}",        
-    "streetCode": "${internat_notifyParty_streetCode}",          
-        "streetName": "${internat_notifyParty_streetName}",          
-    "addressDetail": "${internat_notifyParty_addressDetail}",       
-    "postCode": "${internat_notifyParty_postCode}",            
-    "contactName": "${internat_notifyParty_contactName}",         
-    "telephoneArea": "${internat_notifyParty_telephoneArea}",        
-        "telephoneNumber": "${internat_notifyParty_telephoneNumber}",     
-    "mobileNumber": "${internat_notifyParty_mobileNumber}",        
-        "mobileArea": "${internat_notifyParty_mobileArea}",          
-    "email": "${internat_notifyParty_email}" ,
- "transportLocationCode": "${internat_notifyParty_transportLocationCode}" ,
- "isDefault": True,
-"isInternationalPartner": True
-    },
-   "entrustedParty":{                            
-  "contactPartnerId": "${internat_entrustedParty_contactPartnerId}",   
-  "contactPartnerName": "${internat_entrustedParty_contactPartnerName}", 
-   "contactPartnerType": "${internat_entrustedParty_contactPartnerType}",  
-  "addressAbbreviation": "${internat_entrustedParty_addressAbbreviation}",
-  "addressCode": "${internat_entrustedParty_addressCode}",        
-  "countryCode": "${internat_entrustedParty_countryCode}",        
-   "countryName": "${internat_entrustedParty_countryName}",         
-  "provinceCode": "${internat_entrustedParty_provinceCode}",       
-   "provinceName": "${internat_entrustedParty_provinceName}",        
-  "cityCode": "${internat_entrustedParty_cityCode}",           
-   "cityName": "${internat_entrustedParty_cityName}",            
-  "districtCode": "${internat_entrustedParty_districtCode}",       
-   "districtName": "${internat_entrustedParty_districtName}",        
-  "streetCode": "${internat_entrustedParty_streetCode}",         
-   "streetName": "${internat_entrustedParty_streetName}",          
-  "addressDetail": "${internat_entrustedParty_addressDetail}",      
-  "postCode": "${internat_entrustedParty_postCode}",           
-  "contactName": "${internat_entrustedParty_contactName}",        
-  "telephoneArea": "${internat_entrustedParty_telephoneArea}",       
-   "telephoneNumber": "${internat_entrustedParty_telephoneNumber}",     
-  "mobileNumber": "${internat_entrustedParty_mobileNumber}",       
-   "mobileArea": "${internat_entrustedParty_mobileArea}",          
- "email": "${internat_entrustedParty_email}" ,
-  "transportLocationCode": "${internat_entrustedParty_transportLocationCode}",
-  "isDefault": True,
-"isInternationalPartner": True
-   }  
- },
-"cargoInfo": {
-  "dangerousCargo":True,
-  "cargoTypeCode":"${cargo_types_id}",
-  "grossWeight": 12.86,
-  "grossWeightUnitCode": "${weight_unit_type}",
-  "pieceQty": 11,
-  "pieceQtyUnitCode": "${package_unit_types_id}",
-  "totalPackageQty": 12,
-  "totalPackageQtyUnitCode": "${package_unit_types_id}",
-  "totalVolume": 13,
-  "totalVolumeUnitCode": "${volume_unit_type}",
-  "bulkCartonQty": 14,
-  "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-  "cargoDescription": "1231456asdfasdfasdkfj!",
-  "cargoInfoLines": [
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   },
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   },
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   },
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   }
-  ]
- }, 
- "valueAddedBusiness": {
-  "cargoValue": 10,
-  "currencyCode": "${currencyCode}",
-  "insurance": True,
-  "entrustCustomsDeclaration":True,
-  "insuredValue":11
- },
-"attachments": $__attachment{internat_sea}
-}</t>
-  </si>
-  <si>
     <t>{"cn_express_order_id":"$..data"}</t>
   </si>
   <si>
@@ -13278,8 +12632,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -13311,24 +12665,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13341,15 +12679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13363,9 +12695,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13386,9 +12756,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13402,33 +12786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13441,15 +12801,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13482,7 +12836,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13494,19 +12962,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13518,37 +12974,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13560,109 +13016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13691,17 +13045,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13711,15 +13061,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13755,6 +13096,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -13768,26 +13142,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13796,10 +13150,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13808,133 +13162,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17814,8 +17168,8 @@
   <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17878,7 +17232,7 @@
         <v>484</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1839</v>
+        <v>1539</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1605</v>
@@ -17948,7 +17302,7 @@
         <v>484</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1840</v>
+        <v>1388</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>1461</v>
@@ -18198,7 +17552,7 @@
         <v>1235</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>34</v>
@@ -18212,7 +17566,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
@@ -18242,7 +17596,7 @@
         <v>1674</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>34</v>
@@ -18256,7 +17610,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
@@ -18280,7 +17634,7 @@
   <sheetPr/>
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
@@ -34303,7 +33657,7 @@
   <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -37674,8 +37028,8 @@
   <sheetPr/>
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">国际海运!$A$1:$I$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">国际空运!$A$1:$I$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">国际快递!$A$1:$I$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">运输需求!$A$1:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">运输需求!$A$1:$I$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">异常处理!$A$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6024" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6081" uniqueCount="1890">
   <si>
     <t>case_id</t>
   </si>
@@ -12627,6 +12627,142 @@
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-express/withdraw/${search_internat_express_id}</t>
   </si>
   <si>
+    <t>运输下单-运输需求-分页搜索国内陆运为“可以创建对应的回程需求的订单”</t>
+  </si>
+  <si>
+    <t>{
+    "pagingCondition": {
+        "pageIndex": 0,
+        "pageSize": 5
+    },
+    "shipmentDemandCondition": {
+        "demandStatuses": [
+            "RECEIVED_ORDER"
+        ],
+        "shippingModeCode": "TPM_ROAD",
+        "transnationalShipment":False,
+        "onlyCanReturnDemand":True
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{"search_road_receiving_order_id":"$..id"}</t>
+  </si>
+  <si>
+    <t>[
+["Equal","True","$..success"],
+["Equal","RECEIVED_ORDER","$..demandStatusCode"],
+]</t>
+  </si>
+  <si>
+    <t>运输下单-运输需求-创建回程订单成功</t>
+  </si>
+  <si>
+    <t>/juslink-sccp-shipment-demand-app/shipment-demand/return</t>
+  </si>
+  <si>
+    <t>{
+ "returnFromId": "${search_road_receiving_order_id}"
+}</t>
+  </si>
+  <si>
+    <t>{"success_create_road_receiving_order_id":"$..data"}</t>
+  </si>
+  <si>
+    <t>运输下单-运输需求-已成功创建回程订单的正向订单，不能再次创建回程订单</t>
+  </si>
+  <si>
+    <t>[
+["Equal","False","$..success"]
+]</t>
+  </si>
+  <si>
+    <t>运输下单-运输需求-本身就是回程订单，不能再次创建回程订单</t>
+  </si>
+  <si>
+    <t>{
+ "returnFromId": "${success_create_road_receiving_order_id}"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "pagingCondition": {
+        "pageIndex": 0,
+        "pageSize": 5
+    },
+    "shipmentDemandCondition": {
+        "demandStatuses": [
+            "WAITING_ORDER"
+        ],
+        "shippingModeCode": "TPM_ROAD",
+        "transnationalShipment":False,
+        "onlyCanReturnDemand":False
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{"search_road_waiting_order_id":"$..id"}</t>
+  </si>
+  <si>
+    <t>运输下单-运输需求-状态不是“已接单”的订单，不支持创建回程订单</t>
+  </si>
+  <si>
+    <t>{
+ "returnFromId": "${search_road_waiting_order_id}"
+}</t>
+  </si>
+  <si>
+    <t>/juslink-sccp-shipment-demand-app/shipment-demand/${search_road_waiting_order_id}/order-status</t>
+  </si>
+  <si>
+    <t>运输下单-运输需求-分页搜索非国内陆运"已接单"的订单</t>
+  </si>
+  <si>
+    <t>{
+    "pagingCondition": {
+        "pageIndex": 0,
+        "pageSize": 5
+    },
+    "shipmentDemandCondition": {
+        "demandStatuses": [
+            "RECEIVED_ORDER"
+        ],
+        "shippingModeCode": "TPM_RAIL",
+        "transnationalShipment":False,
+        "onlyCanReturnDemand":True
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{"search_not_road_received_order_id":"$..id"}</t>
+  </si>
+  <si>
+    <t>运输下单-运输需求-非陆运“已接单”的订单，不支持创建回程订单</t>
+  </si>
+  <si>
+    <t>{
+ "returnFromId": "${search_not_road_received_order_id}"
+}</t>
+  </si>
+  <si>
     <t>运输下单-异常处理-分页搜索全部数据</t>
   </si>
   <si>
@@ -13358,8 +13494,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -13390,13 +13526,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -13405,9 +13540,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13418,25 +13569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13450,22 +13584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -13473,15 +13591,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13504,7 +13616,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13512,24 +13647,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -13560,19 +13696,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13584,25 +13750,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13620,7 +13846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13632,115 +13870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13771,11 +13907,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13784,7 +13933,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13821,24 +13985,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13846,23 +13997,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13874,10 +14010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13886,133 +14022,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16779,10 +16915,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17851,8 +17987,212 @@
         <v>34</v>
       </c>
     </row>
+    <row r="46" ht="139" customHeight="1" spans="2:9">
+      <c r="B46" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="47" ht="108" spans="2:9">
+      <c r="B47" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" ht="108" spans="2:9">
+      <c r="B48" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="13" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="49" ht="108" spans="2:9">
+      <c r="B49" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="13" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="50" ht="90" customHeight="1" spans="2:9">
+      <c r="B50" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>1861</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="51" ht="108" spans="2:9">
+      <c r="B51" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="13" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="52" ht="108" spans="2:9">
+      <c r="B52" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" ht="117" customHeight="1" spans="2:9">
+      <c r="B53" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>1867</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="54" ht="108" spans="2:9">
+      <c r="B54" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="13" t="s">
+        <v>1858</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I45">
+  <autoFilter ref="A1:I54">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17917,23 +18257,23 @@
         <v>780</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1849</v>
+        <v>1871</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1850</v>
+        <v>1872</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="5" t="s">
         <v>1733</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1851</v>
+        <v>1873</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1852</v>
+        <v>1874</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>34</v>
@@ -17941,24 +18281,24 @@
     </row>
     <row r="3" ht="100" customHeight="1" spans="2:9">
       <c r="B3" s="9" t="s">
-        <v>1853</v>
+        <v>1875</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1850</v>
+        <v>1872</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="5" t="s">
         <v>1733</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1854</v>
+        <v>1876</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>1855</v>
+        <v>1877</v>
       </c>
     </row>
   </sheetData>
@@ -18040,10 +18380,10 @@
         <v>484</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1856</v>
+        <v>1878</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1857</v>
+        <v>1879</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>34</v>
@@ -18110,10 +18450,10 @@
         <v>484</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1858</v>
+        <v>1880</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>1859</v>
+        <v>1881</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>34</v>
@@ -18163,7 +18503,7 @@
         <v>1113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1860</v>
+        <v>1882</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>34</v>
@@ -18213,7 +18553,7 @@
         <v>975</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1861</v>
+        <v>1883</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>34</v>
@@ -18263,7 +18603,7 @@
         <v>837</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1862</v>
+        <v>1884</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>34</v>
@@ -18313,7 +18653,7 @@
         <v>633</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1863</v>
+        <v>1885</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>34</v>
@@ -18360,7 +18700,7 @@
         <v>1238</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1864</v>
+        <v>1886</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>34</v>
@@ -18374,7 +18714,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1865</v>
+        <v>1887</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
@@ -18404,7 +18744,7 @@
         <v>1679</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1866</v>
+        <v>1888</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>34</v>
@@ -18418,7 +18758,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1867</v>
+        <v>1889</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
@@ -18442,8 +18782,8 @@
   <sheetPr/>
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21417,8 +21757,8 @@
   <sheetPr/>
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690" tabRatio="778" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6162" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6163" uniqueCount="1918">
   <si>
     <t>case_id</t>
   </si>
@@ -3954,27 +3954,6 @@
     "containerType": "${containerCode}",
     "containerTypeCode": "${containerType}",
     "requestContainerQty": 12
-   },
-    {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 45645645
-   },
-     {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 97894654
-   },
-     {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 45
    }
   ],
   "railwayTransportationNode": {
@@ -4010,63 +3989,6 @@
   "volume": "${@INT}",
   "width": "${@INT}",
   "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    },
-     {
-  "companyPn": "${@INT}",
-  "descriptionGoods": "${@SYMBOL}",
-  "hsCode": "${@SYMBOL}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 8700,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "1${@INT}",
-  "width": "2${@INT}",
-  "amount": "3${@INT}",
-  "height": "4${@INT}",
-  "length": "5${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 456446456,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}45",
-  "width": "${@INT}.01",
-  "amount": "${@INT}.4",
-  "height": "4${@INT}.1",
-  "length": "${@INT}.11",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity":465456,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "3${@INT}",
-  "width": "${@INT}",
-  "amount": "1${@INT}",
   "height": "4${@INT}",
   "length": "${@INT}",
   "currencyCode": "${currencyCode}",
@@ -5176,27 +5098,6 @@
     "containerType": "${containerCode}",
     "containerTypeCode": "${containerType}",
     "requestContainerQty": 465456
-   },
-    {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 31319787
-   },
-    {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 65465789
-   },
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 313213456
    }
   ],
   "seaTransportationNode": {
@@ -5237,63 +5138,6 @@
   "currencyCode": "${currencyCode}",
   "grossWeight": "11111",
   "netWeight": "2222"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}1",
-  "volume": "${@INT}2",
-  "width": "${@INT}3",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "5${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "5555.654",
-  "netWeight": "999.784521"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "${@INT}2",
-  "width": "${@INT}1",
-  "amount": "7${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}6",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "77777.888",
-  "netWeight": "888"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "2${@INT}",
-  "width": "3${@INT}",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "5${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
     }
    ] 
     },
@@ -6171,27 +6015,6 @@
     "containerType": "${containerCode}",
     "containerTypeCode": "${containerType}",
     "requestContainerQty": 12
-   },
-    {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   },
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   },
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
    }
   ],
   "airTransportationNode": {
@@ -6231,62 +6054,6 @@
   "length": "${@INT}1",
   "currencyCode": "${currencyCode}",
   "grossWeight": "33333",
-  "netWeight": "4444.55"
-    },
-     {
-  "companyPn": "${@INT}",
-  "descriptionGoods": "${@SYMBOL}",
-  "hsCode": "${@SYMBOL}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 8700,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "5${@INT}",
-  "volume": "${@INT}1",
-  "width": "${@INT}8",
-  "amount": "${@INT}.1",
-  "height": "4${@INT}",
-  "length": "${@INT}0",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 456446456,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}","unitPrice": "${@INT}",
-  "volume": "${@INT}5",
-  "width": "${@INT}4",
-  "amount": "${@INT}3",
-  "height": "4${@INT}",
-  "length": "2${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity":465456,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "2${@INT}",
-  "width": "3${@INT}",
-  "amount": "4${@INT}",
-  "height": "4${@INT}",
-  "length": "6${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "5555",
   "netWeight": "4444.55"
     }
    ] 
@@ -7137,25 +6904,12 @@
     "containerType": "${containerCode}",
     "containerTypeCode": "${containerType}",
     "requestContainerQty": 12
-   },
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
    }
   ],
   "vehicleInfos": [
    {
-    "needCustomsSupervision": True,
-    "vehicleQty": 12,
-    "vehicleSpecificationCode": "${vehicle_specification_id}",
-    "vehicleTypeCode": "${vehicle_type_id}"
-   },
-  {
-    "needCustomsSupervision": True,
-    "vehicleQty": 25,
+    "needCustomsSupervision": "${customsSupervisionFlag}",
+    "vehicleQty": 11,
     "vehicleSpecificationCode": "${vehicle_specification_id}",
     "vehicleTypeCode": "${vehicle_type_id}"
    }
@@ -7196,121 +6950,7 @@
   "currencyCode": "${currencyCode}",
   "grossWeight": "12345678.11",
   "netWeight": "12345.55"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@PHONE}",
-  "width": "${@PHONE}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@PHONE}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "${@INT}2",
-  "width": "${@INT}3",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "${@INT}7",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "789456.1152",
-  "netWeight": "123456.5577"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}1",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44545231.1125",
-  "netWeight": "444.55"
-    },
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "3214521.1154",
-  "netWeight": "123456.55"
-    },
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "222222.456456",
-  "netWeight": "32144.456789"
-    },
-   {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "${@INT}0",
-  "width": "${@INT}1",
-  "amount": "${@INT}2",
-  "height": "4${@INT}",
-  "length": "5${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "111.11254",
-  "netWeight": "44.5566"
-    },
+    }
    ] 
     },
  "valueAddedBusiness": {
@@ -8112,121 +7752,7 @@
   "currencyCode": "${currencyCode}",
   "grossWeight": "12345678.11",
   "netWeight": "12345.55"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}1",
-  "volume": "${@INT}2",
-  "width": "${@INT}3",
-  "amount": "${@INT}5",
-  "height": "4${@INT}",
-  "length": "${@INT}9",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}1",
-  "volume": "${@INT}9",
-  "width": "${@INT}9",
-  "amount": "${@INT}7",
-  "height": "${@INT}4",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "789456.1152",
-  "netWeight": "123456.5577"
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}1",
-  "volume": "${@INT}8",
-  "width": "${@INT}7",
-  "amount": "${@INT}4",
-  "height": "4${@INT}6",
-  "length": "${@INT}3",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44545231.1125",
-  "netWeight": "444.55"
-    },
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "3214521.1154",
-  "netWeight": "123456.55"
-    },
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}1",
-  "volume": "${@INT}",
-  "width": "${@INT}7",
-  "amount": "${@INT}5",
-  "height": "4${@INT}",
-  "length": "${@INT}2",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "222222.456456",
-  "netWeight": "32144.456789"
-    },
-   {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}1",
-  "volume": "${@INT}2",
-  "width": "${@INT}3",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "${@INT}5",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "111.11254",
-  "netWeight": "44.5566"
-    },
+    }
    ] 
     },
  "valueAddedBusiness": {
@@ -9307,20 +8833,6 @@
     "containerType": "${containerCode}",
     "containerTypeCode": "${containerType}",
     "requestContainerQty": 12
-   },
-   {
-    "containerSizeCode": "${internat_container_specification_id}",
-    "containerSizeName": "${internat_container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 88
-   },
-   {
-    "containerSizeCode": "${internat_container_specification_id}",
-    "containerSizeName": "${internat_container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 99
    }
   ],
      "originCityId": "${internat_cityCode_1}",
@@ -9510,66 +9022,6 @@
   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
   "cargoDescription": "1231456asdfasdfasdkfj!",
   "cargoInfoLines": [
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   },
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   },
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   },
    {
     "companyPn": "P123456!",
     "descriptionGoods": "123SAFD@#",
@@ -10622,69 +10074,6 @@
   "grossWeight": "44512.1455",
   "netWeight": "4589.55",
   "cargoQuantity": 1000
-   },
-   {
-   "dangerousCargo":True,
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55",
-  "cargoQuantity": 1000
-   },
-   {
-   "dangerousCargo":True,
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55",
-  "cargoQuantity": 1000
-   },
-   {
-   "dangerousCargo":True,
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55",
-  "cargoQuantity": 1000
    }
   ]
  },
@@ -11577,127 +10966,7 @@
   "grossWeight": "12345678.11",
   "netWeight": "12345.55",
   "cargoQuantity": 8456456123
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}0",
-  "volume": "${@INT}8",
-  "width": "${@INT}9",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "${@INT}6",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44512.1455",
-  "netWeight": "4589.55",
-  "cargoQuantity": 33454654871
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}1",
-  "width": "${@INT}0",
-  "amount": "${@INT}0",
-  "height": "4${@INT}",
-  "length": "${@INT}4",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "789456.1152",
-  "netWeight": "123456.5577",
-  "cargoQuantity": 8545123132
-    },
-     {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "44545231.1125",
-  "netWeight": "444.55",
-  "cargoQuantity": 564645641
-    },
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}0",
-  "width": "${@INT}5",
-  "amount": "${@INT}3",
-  "height": "4${@INT}",
-  "length": "${@INT}9",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "3214521.1154",
-  "netWeight": "123456.55",
-  "cargoQuantity": 212123132
-    },
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "222222.456456",
-  "netWeight": "32144.456789",
-  "cargoQuantity": 123123123
-    },
-   {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "111.11254",
-  "netWeight": "44.5566",
-  "cargoQuantity": 888115465456
-    },
+    }
    ] 
     },
  "valueAddedBusiness": {
@@ -13510,22 +12779,1811 @@
     <t>{"internat_sea_order_id":"$..data"}</t>
   </si>
   <si>
+    <t>{
+"referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${cn_reference_order_id}"
+   }
+  ],
+ "attachments": $__attachment{cn_road},
+ "shippingInfo": 
+  {
+   "shipper":{                                
+       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
+       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
+               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
+       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
+       "addressCode": "${cn_shipper_addressCode}",         
+       "countryCode": "${cn_shipper_countryCode}",         
+               "countryName": "${cn_shipper_countryName}",         
+       "provinceCode": "${cn_shipper_provinceCode}",        
+               "provinceName": "${cn_shipper_provinceName}",        
+       "cityCode": "${cn_shipper_cityCode}",            
+               "cityName": "${cn_shipper_cityName}",            
+       "districtCode": "${cn_shipper_districtCode}",        
+               "districtName": "${cn_shipper_districtName}",        
+       "streetCode": "${cn_shipper_streetCode}",          
+               "streetName": "${cn_shipper_streetName}",          
+       "addressDetail": "${cn_shipper_addressDetail}",       
+       "postCode": "${cn_shipper_postCode}",            
+       "contactName": "${cn_shipper_contactName}",         
+       "telephoneArea": "${cn_shipper_telephoneArea}",        
+               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
+       "mobileNumber": "${cn_shipper_mobileNumber}",        
+               "mobileArea": "${cn_shipper_mobileArea}",          
+       "email": "${cn_shipper_email}",
+  "isDefault": True,
+  "isInternationalPartner": False
+       },
+ "shippingAddress":{                                      
+     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
+     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
+     "addressCode": "${cn_shippingAddress_addressCode}",              
+     "countryCode": "${cn_shippingAddress_countryCode}",              
+          "countryName": "${cn_shippingAddress_countryName}",              
+     "provinceCode": "${cn_shippingAddress_provinceCode}",             
+          "provinceName": "${cn_shippingAddress_provinceName}",             
+     "cityCode": "${cn_shippingAddress_cityCode}",                 
+          "cityName": "${cn_shippingAddress_cityName}",                 
+     "districtCode": "${cn_shippingAddress_districtCode}",             
+          "districtName": "${cn_shippingAddress_districtName}",             
+     "streetCode": "${cn_shippingAddress_streetCode}",               
+          "streetName": "${cn_shippingAddress_streetName}",               
+     "addressDetail": "${cn_shippingAddress_addressDetail}",            
+     "postCode": "${cn_shippingAddress_postCode}",                 
+     "contactName": "${cn_shippingAddress_contactName}",              
+     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
+          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
+     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
+          "mobileArea": "${cn_shippingAddress_mobileArea}",               
+     "email": "${cn_shippingAddress_email}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "consignee":{                               
+      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
+      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
+             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
+      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
+      "addressCode": "${cn_consignee_addressCode}",         
+      "countryCode": "${cn_consignee_countryCode}",         
+             "countryName": "${cn_consignee_countryName}",         
+      "provinceCode": "${cn_consignee_provinceCode}",        
+             "provinceName": "${cn_consignee_provinceName}",        
+      "cityCode": "${cn_consignee_cityCode}",            
+             "cityName": "${cn_consignee_cityName}",            
+      "districtCode": "${cn_consignee_districtCode}",        
+             "districtName": "${cn_consignee_districtName}",        
+      "streetCode": "${cn_consignee_streetCode}",          
+             "streetName": "${cn_consignee_streetName}",          
+      "addressDetail": "${cn_consignee_addressDetail}",       
+      "postCode": "${cn_consignee_postCode}",            
+      "contactName": "${cn_consignee_contactName}",         
+      "telephoneArea": "${cn_consignee_telephoneArea}",        
+             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
+      "mobileNumber": "${cn_consignee_mobileNumber}",        
+             "mobileArea": "${cn_consignee_mobileArea}",          
+      "email": "${cn_consignee_email}" ,
+ "isDefault": True,
+ "isInternationalPartner": False
+     },
+ "receivingAddress":{                                      
+      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${cn_receivingAddress_addressCode}",             
+      "countryCode": "${cn_receivingAddress_countryCode}",             
+           "countryName": "${cn_receivingAddress_countryName}",              
+      "provinceCode": "${cn_receivingAddress_provinceCode}",            
+           "provinceName": "${cn_receivingAddress_provinceName}",             
+      "cityCode": "${cn_receivingAddress_cityCode}",                
+           "cityName": "${cn_receivingAddress_cityName}",                 
+      "districtCode": "${cn_receivingAddress_districtCode}",            
+           "districtName": "${cn_receivingAddress_districtName}",             
+      "streetCode": "${cn_receivingAddress_streetCode}",              
+           "streetName": "${cn_receivingAddress_streetName}",               
+      "addressDetail": "${cn_receivingAddress_addressDetail}",           
+      "postCode": "${cn_receivingAddress_postCode}",                
+      "contactName": "${cn_receivingAddress_contactName}",             
+      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
+           "mobileArea": "${cn_receivingAddress_mobileArea}",               
+     "email": "${cn_receivingAddress_email}" ,
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+   "pickUp":True,
+   "takeDelivery":True,
+   "originCityId": "${origin_city_code}",
+   "destinationCityId": "${destion_city_code}",
+   "requiredPickupTime": 1622776198000,
+   "requiredArrivalTime": 1622862598000,
+   "loadingTypeCode": "${cn_road_load_type_id}",
+   "serviceModeCode": "${cn_road_server_type_id}",
+   "containerInfos": [
+   {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 12
+   },
+   {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 12
+   }
+  ],
+  "vehicleInfos": [
+   {
+    "needCustomsSupervision": True,
+    "vehicleQty": 12,
+    "vehicleSpecificationCode": "${vehicle_specification_id}",
+    "vehicleTypeCode": "${vehicle_type_id}"
+   },
+  {
+    "needCustomsSupervision": True,
+    "vehicleQty": 25,
+    "vehicleSpecificationCode": "${vehicle_specification_id}",
+    "vehicleTypeCode": "${vehicle_type_id}"
+   }
+  ],
+  "uturn": True,
+  "uturnAreaCode": "${bonded_area_id}",
+  "uturnDocumentCode": "${uturn_document_id}"
+  },
+   "cargoInfo": {
+   "cargoTypeCode":"${cargo_types_id}",
+   "grossWeight": 12.86,
+   "grossWeightUnitCode": "${weight_unit_type}",
+   "pieceQty": 11,
+   "pieceQtyUnitCode": "${package_unit_types_id}",
+   "totalPackageQty": 12,
+   "totalPackageQtyUnitCode": "${package_unit_types_id}",
+   "totalVolume": 13,
+   "totalVolumeUnitCode": "${volume_unit_type}",
+   "bulkCartonQty": 14,
+   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+   "cargoDescription": "1231456asdfasdfasdkfj!",
+   "cargoInfoLines": [
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "12345678.11",
+  "netWeight": "12345.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@PHONE}",
+  "width": "${@PHONE}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@PHONE}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44512.1455",
+  "netWeight": "4589.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "1${@INT}",
+  "volume": "${@INT}2",
+  "width": "${@INT}3",
+  "amount": "${@INT}4",
+  "height": "4${@INT}",
+  "length": "${@INT}7",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "789456.1152",
+  "netWeight": "123456.5577"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}1",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44545231.1125",
+  "netWeight": "444.55"
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "3214521.1154",
+  "netWeight": "123456.55"
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "222222.456456",
+  "netWeight": "32144.456789"
+    },
+   {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "1${@INT}",
+  "volume": "${@INT}0",
+  "width": "${@INT}1",
+  "amount": "${@INT}2",
+  "height": "4${@INT}",
+  "length": "5${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "111.11254",
+  "netWeight": "44.5566"
+    },
+   ] 
+    },
+ "valueAddedBusiness": {
+   "cargoValue": 10.00,
+   "currencyCode": "${currencyCode}",
+   "insurance": True,
+   "needContainerJit": True,
+   "needDischarge": True,
+   "needLoad": False,
+   "pod": True,
+   "speedway": True,
+   "urgent": True,
+   "needEscort":True,
+   "escortTypeCode":"${escort_type_id}"
+  },
+ "settlementInfo": {
+    "consignorId": "${companyId}",
+    "costCode": "${costCode}"
+  }
+}</t>
+  </si>
+  <si>
     <t>{"road_order_id":"$..data"}</t>
   </si>
   <si>
+    <t>{
+ "referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${cn_reference_order_id}"
+   }
+  ],
+ "attachments": $__attachment{cn_air},
+ "shippingInfo": 
+  {
+  "shipper":{                                
+       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
+       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
+               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
+       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
+       "addressCode": "${cn_shipper_addressCode}",         
+       "countryCode": "${cn_shipper_countryCode}",         
+               "countryName": "${cn_shipper_countryName}",         
+       "provinceCode": "${cn_shipper_provinceCode}",        
+               "provinceName": "${cn_shipper_provinceName}",        
+       "cityCode": "${cn_shipper_cityCode}",            
+               "cityName": "${cn_shipper_cityName}",            
+       "districtCode": "${cn_shipper_districtCode}",        
+               "districtName": "${cn_shipper_districtName}",        
+       "streetCode": "${cn_shipper_streetCode}",          
+               "streetName": "${cn_shipper_streetName}",          
+       "addressDetail": "${cn_shipper_addressDetail}",       
+       "postCode": "${cn_shipper_postCode}",            
+       "contactName": "${cn_shipper_contactName}",         
+       "telephoneArea": "${cn_shipper_telephoneArea}",        
+               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
+       "mobileNumber": "${cn_shipper_mobileNumber}",        
+               "mobileArea": "${cn_shipper_mobileArea}",          
+       "email": "${cn_shipper_email}" ,
+  "isDefault": True,
+  "isInternationalPartner": False
+       },
+ "shippingAddress":{                                      
+     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
+     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
+     "addressCode": "${cn_shippingAddress_addressCode}",              
+     "countryCode": "${cn_shippingAddress_countryCode}",              
+          "countryName": "${cn_shippingAddress_countryName}",              
+     "provinceCode": "${cn_shippingAddress_provinceCode}",             
+          "provinceName": "${cn_shippingAddress_provinceName}",             
+     "cityCode": "${cn_shippingAddress_cityCode}",                 
+          "cityName": "${cn_shippingAddress_cityName}",                 
+     "districtCode": "${cn_shippingAddress_districtCode}",             
+          "districtName": "${cn_shippingAddress_districtName}",             
+     "streetCode": "${cn_shippingAddress_streetCode}",               
+          "streetName": "${cn_shippingAddress_streetName}",               
+     "addressDetail": "${cn_shippingAddress_addressDetail}",            
+     "postCode": "${cn_shippingAddress_postCode}",                 
+     "contactName": "${cn_shippingAddress_contactName}",              
+     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
+          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
+     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
+          "mobileArea": "${cn_shippingAddress_mobileArea}",               
+     "email": "${cn_shippingAddress_email}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "consignee":{                               
+      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
+      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
+             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
+      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
+      "addressCode": "${cn_consignee_addressCode}",         
+      "countryCode": "${cn_consignee_countryCode}",         
+             "countryName": "${cn_consignee_countryName}",         
+      "provinceCode": "${cn_consignee_provinceCode}",        
+             "provinceName": "${cn_consignee_provinceName}",        
+      "cityCode": "${cn_consignee_cityCode}",            
+             "cityName": "${cn_consignee_cityName}",            
+      "districtCode": "${cn_consignee_districtCode}",        
+             "districtName": "${cn_consignee_districtName}",        
+      "streetCode": "${cn_consignee_streetCode}",          
+             "streetName": "${cn_consignee_streetName}",          
+      "addressDetail": "${cn_consignee_addressDetail}",       
+      "postCode": "${cn_consignee_postCode}",            
+      "contactName": "${cn_consignee_contactName}",         
+      "telephoneArea": "${cn_consignee_telephoneArea}",        
+             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
+      "mobileNumber": "${cn_consignee_mobileNumber}",        
+             "mobileArea": "${cn_consignee_mobileArea}",          
+      "email": "${cn_consignee_email}",
+ "isDefault": True,
+ "isInternationalPartner": False
+     },
+ "receivingAddress":{                                      
+      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${cn_receivingAddress_addressCode}",             
+      "countryCode": "${cn_receivingAddress_countryCode}",             
+           "countryName": "${cn_receivingAddress_countryName}",              
+      "provinceCode": "${cn_receivingAddress_provinceCode}",            
+           "provinceName": "${cn_receivingAddress_provinceName}",             
+      "cityCode": "${cn_receivingAddress_cityCode}",                
+           "cityName": "${cn_receivingAddress_cityName}",                 
+      "districtCode": "${cn_receivingAddress_districtCode}",            
+           "districtName": "${cn_receivingAddress_districtName}",             
+      "streetCode": "${cn_receivingAddress_streetCode}",              
+           "streetName": "${cn_receivingAddress_streetName}",               
+      "addressDetail": "${cn_receivingAddress_addressDetail}",           
+      "postCode": "${cn_receivingAddress_postCode}",                
+      "contactName": "${cn_receivingAddress_contactName}",             
+      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
+           "mobileArea": "${cn_receivingAddress_mobileArea}",               
+     "email": "${cn_receivingAddress_email}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "notifyParty":{                                  
+         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
+         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
+                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
+         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
+         "addressCode": "${cn_notifyParty_addressCode}",        
+         "countryCode": "${cn_notifyParty_countryCode}",        
+                   "countryName": "${cn_notifyParty_countryName}",        
+         "provinceCode": "${cn_notifyParty_provinceCode}",       
+                   "provinceName": "${cn_notifyParty_provinceName}",       
+         "cityCode": "${cn_notifyParty_cityCode}",           
+                   "cityName": "${cn_notifyParty_cityName}",           
+         "districtCode": "${cn_notifyParty_districtCode}",       
+                   "districtName": "${cn_notifyParty_districtName}",       
+         "streetCode": "${cn_notifyParty_streetCode}",         
+                   "streetName": "${cn_notifyParty_streetName}",         
+         "addressDetail": "${cn_notifyParty_addressDetail}",      
+         "postCode": "${cn_notifyParty_postCode}",           
+         "contactName": "${cn_notifyParty_contactName}",        
+         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
+                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
+         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
+                   "mobileArea": "${cn_notifyParty_mobileArea}",         
+         "email": "${cn_notifyParty_email}" ,
+  "isDefault": True,
+  "isInternationalPartner": False
+       },
+   "pickUp":True,
+   "takeDelivery":True,
+   "originCityId": "${origin_city_code}",
+   "destinationCityId": "${destion_city_code}",
+   "requiredPickupTime": 1622776198000,
+   "requiredArrivalTime": 1622862598000,
+   "serviceModeCode": "${cn_air_server_type_id}",
+   "paymentTypeCode": "${paying_types_id}",
+   "marksAndNumbers":"${@CHAR}",
+   "containerInfo": [
+   {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 12
+   },
+    {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 12
+   },
+   {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 12
+   },
+   {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 12
+   }
+  ],
+  "airTransportationNode": {
+   "designatedAirport": True,
+   "dischargeAirportId": "${air_dest_id}",
+   "originAirportId": "${air_origin_id}"
+  }
+  },
+   "cargoInfo": {
+   "cargoTypeCode":"${cargo_types_id}",
+   "grossWeight": 12.86,
+   "grossWeightUnitCode": "${weight_unit_type}",
+   "pieceQty": 11,
+   "pieceQtyUnitCode": "${package_unit_types_id}",
+   "totalPackageQty": 12,
+   "totalPackageQtyUnitCode": "${package_unit_types_id}",
+   "totalVolume": 13,
+   "totalVolumeUnitCode": "${volume_unit_type}",
+   "bulkCartonQty": 14,
+   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+   "cargoDescription": "1231456asdfasdfasdkfj!",
+   "cargoInfoLines": [
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}7",
+  "width": "${@INT}8",
+  "amount": "${@INT}9",
+  "height": "4${@INT}",
+  "length": "${@INT}1",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "33333",
+  "netWeight": "4444.55"
+    },
+     {
+  "companyPn": "${@INT}",
+  "descriptionGoods": "${@SYMBOL}",
+  "hsCode": "${@SYMBOL}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 8700,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "5${@INT}",
+  "volume": "${@INT}1",
+  "width": "${@INT}8",
+  "amount": "${@INT}.1",
+  "height": "4${@INT}",
+  "length": "${@INT}0",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "33333",
+  "netWeight": "4444.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 456446456,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}","unitPrice": "${@INT}",
+  "volume": "${@INT}5",
+  "width": "${@INT}4",
+  "amount": "${@INT}3",
+  "height": "4${@INT}",
+  "length": "2${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "33333",
+  "netWeight": "4444.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity":465456,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "1${@INT}",
+  "volume": "2${@INT}",
+  "width": "3${@INT}",
+  "amount": "4${@INT}",
+  "height": "4${@INT}",
+  "length": "6${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "5555",
+  "netWeight": "4444.55"
+    }
+   ] 
+    },
+ "valueAddedBusiness": {
+   "cargoValue": 10.00,
+   "currencyCode": "${currencyCode}",
+   "insurance": True,
+   "urgent": True
+  },
+ "settlementInfo": {
+    "consignorId": "${companyId}",
+    "costCode": "${costCode}"
+  }
+}</t>
+  </si>
+  <si>
     <t>{"cn_air_order_id":"$..data"}</t>
   </si>
   <si>
+    <t>{
+"referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${cn_reference_order_id}"
+   }
+  ],
+ "attachments": $__attachment{cn_sea},
+ "shippingInfo": 
+  {
+   "shipper":{                                
+       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
+       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
+               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
+       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
+       "addressCode": "${cn_shipper_addressCode}",         
+       "countryCode": "${cn_shipper_countryCode}",         
+               "countryName": "${cn_shipper_countryName}",         
+       "provinceCode": "${cn_shipper_provinceCode}",        
+               "provinceName": "${cn_shipper_provinceName}",        
+       "cityCode": "${cn_shipper_cityCode}",            
+               "cityName": "${cn_shipper_cityName}",            
+       "districtCode": "${cn_shipper_districtCode}",        
+               "districtName": "${cn_shipper_districtName}",        
+       "streetCode": "${cn_shipper_streetCode}",          
+               "streetName": "${cn_shipper_streetName}",          
+       "addressDetail": "${cn_shipper_addressDetail}",       
+       "postCode": "${cn_shipper_postCode}",            
+       "contactName": "${cn_shipper_contactName}",         
+       "telephoneArea": "${cn_shipper_telephoneArea}",        
+               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
+       "mobileNumber": "${cn_shipper_mobileNumber}",        
+               "mobileArea": "${cn_shipper_mobileArea}",          
+       "email": "${cn_shipper_email}",
+  "isDefault": True,
+  "isInternationalPartner": False
+       },
+ "shippingAddress":{                                      
+     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
+     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
+     "addressCode": "${cn_shippingAddress_addressCode}",              
+     "countryCode": "${cn_shippingAddress_countryCode}",              
+          "countryName": "${cn_shippingAddress_countryName}",              
+     "provinceCode": "${cn_shippingAddress_provinceCode}",             
+          "provinceName": "${cn_shippingAddress_provinceName}",             
+     "cityCode": "${cn_shippingAddress_cityCode}",                 
+          "cityName": "${cn_shippingAddress_cityName}",                 
+     "districtCode": "${cn_shippingAddress_districtCode}",             
+          "districtName": "${cn_shippingAddress_districtName}",             
+     "streetCode": "${cn_shippingAddress_streetCode}",               
+          "streetName": "${cn_shippingAddress_streetName}",               
+     "addressDetail": "${cn_shippingAddress_addressDetail}",            
+     "postCode": "${cn_shippingAddress_postCode}",                 
+     "contactName": "${cn_shippingAddress_contactName}",              
+     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
+          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
+     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
+          "mobileArea": "${cn_shippingAddress_mobileArea}",               
+     "email": "${cn_shippingAddress_email}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "consignee":{                               
+      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
+      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
+             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
+      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
+      "addressCode": "${cn_consignee_addressCode}",         
+      "countryCode": "${cn_consignee_countryCode}",         
+             "countryName": "${cn_consignee_countryName}",         
+      "provinceCode": "${cn_consignee_provinceCode}",        
+             "provinceName": "${cn_consignee_provinceName}",        
+      "cityCode": "${cn_consignee_cityCode}",            
+             "cityName": "${cn_consignee_cityName}",            
+      "districtCode": "${cn_consignee_districtCode}",        
+             "districtName": "${cn_consignee_districtName}",        
+      "streetCode": "${cn_consignee_streetCode}",          
+             "streetName": "${cn_consignee_streetName}",          
+      "addressDetail": "${cn_consignee_addressDetail}",       
+      "postCode": "${cn_consignee_postCode}",            
+      "contactName": "${cn_consignee_contactName}",         
+      "telephoneArea": "${cn_consignee_telephoneArea}",        
+             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
+      "mobileNumber": "${cn_consignee_mobileNumber}",        
+             "mobileArea": "${cn_consignee_mobileArea}",          
+      "email": "${cn_consignee_email}",
+  "isDefault": True,
+ "isInternationalPartner": False
+     },
+ "receivingAddress":{                                      
+      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${cn_receivingAddress_addressCode}",             
+      "countryCode": "${cn_receivingAddress_countryCode}",             
+           "countryName": "${cn_receivingAddress_countryName}",              
+      "provinceCode": "${cn_receivingAddress_provinceCode}",            
+           "provinceName": "${cn_receivingAddress_provinceName}",             
+      "cityCode": "${cn_receivingAddress_cityCode}",                
+           "cityName": "${cn_receivingAddress_cityName}",                 
+      "districtCode": "${cn_receivingAddress_districtCode}",            
+           "districtName": "${cn_receivingAddress_districtName}",             
+      "streetCode": "${cn_receivingAddress_streetCode}",              
+           "streetName": "${cn_receivingAddress_streetName}",               
+      "addressDetail": "${cn_receivingAddress_addressDetail}",           
+      "postCode": "${cn_receivingAddress_postCode}",                
+      "contactName": "${cn_receivingAddress_contactName}",             
+      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
+           "mobileArea": "${cn_receivingAddress_mobileArea}",               
+     "email": "${cn_receivingAddress_email}" ,
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "notifyParty":{                                  
+         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
+         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
+                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
+         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
+         "addressCode": "${cn_notifyParty_addressCode}",        
+         "countryCode": "${cn_notifyParty_countryCode}",        
+                   "countryName": "${cn_notifyParty_countryName}",        
+         "provinceCode": "${cn_notifyParty_provinceCode}",       
+                   "provinceName": "${cn_notifyParty_provinceName}",       
+         "cityCode": "${cn_notifyParty_cityCode}",           
+                   "cityName": "${cn_notifyParty_cityName}",           
+         "districtCode": "${cn_notifyParty_districtCode}",       
+                   "districtName": "${cn_notifyParty_districtName}",       
+         "streetCode": "${cn_notifyParty_streetCode}",         
+                   "streetName": "${cn_notifyParty_streetName}",         
+         "addressDetail": "${cn_notifyParty_addressDetail}",      
+         "postCode": "${cn_notifyParty_postCode}",           
+         "contactName": "${cn_notifyParty_contactName}",        
+         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
+                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
+         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
+                   "mobileArea": "${cn_notifyParty_mobileArea}",         
+         "email": "${cn_notifyParty_email}",
+  "isDefault": True,
+  "isInternationalPartner": False
+       },
+   "pickUp":True,
+   "takeDelivery":True,
+   "originCityId": "${origin_city_code}",
+   "destinationCityId": "${destion_city_code}",
+   "requiredPickupTime": 1622776198000,
+   "requiredArrivalTime": 1622862598000,
+   "loadingTypeCode": "${cn_sea_load_type_id}",
+   "serviceModeCode": "${cn_sea_server_type_id}",
+   "paymentTypeCode": "${paying_types_id}",
+   "marksAndNumbers":"${@CHAR}",
+   "containerInfos": [
+   {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 465456
+   },
+    {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 31319787
+   },
+    {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 65465789
+   },
+   {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 313213456
+   }
+  ],
+  "seaTransportationNode": {
+   "designatedSeaport": True,
+   "originSeaportId": "${sea_origin_id}",
+   "dischargeSeaportId": "${sea_dest_id}"
+  }
+  },
+   "cargoInfo": {
+   "cargoTypeCode":"${cargo_types_id}",
+   "grossWeight": 12.86,
+   "grossWeightUnitCode": "${weight_unit_type}",
+   "pieceQty": 11,
+   "pieceQtyUnitCode": "${package_unit_types_id}",
+   "totalPackageQty": 12,
+   "totalPackageQtyUnitCode": "${package_unit_types_id}",
+   "totalVolume": 13,
+   "totalVolumeUnitCode": "${volume_unit_type}",
+   "bulkCartonQty": 14,
+   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+   "cargoDescription": "1231456asdfasdfasdkfj!",
+   "cargoInfoLines": [
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "1${@INT}",
+  "volume": "2${@INT}",
+  "width": "3${@INT}",
+  "amount": "4${@INT}",
+  "height": "4${@INT}",
+  "length": "5${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "11111",
+  "netWeight": "2222"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}1",
+  "volume": "${@INT}2",
+  "width": "${@INT}3",
+  "amount": "${@INT}4",
+  "height": "4${@INT}",
+  "length": "5${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "5555.654",
+  "netWeight": "999.784521"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "1${@INT}",
+  "volume": "${@INT}2",
+  "width": "${@INT}1",
+  "amount": "7${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}6",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "77777.888",
+  "netWeight": "888"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "1${@INT}",
+  "volume": "2${@INT}",
+  "width": "3${@INT}",
+  "amount": "${@INT}4",
+  "height": "4${@INT}",
+  "length": "5${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "33333",
+  "netWeight": "4444.55"
+    }
+   ] 
+    },
+ "valueAddedBusiness": {
+   "cargoValue": 10.00,
+   "currencyCode": "${currencyCode}",
+   "insurance": True,
+   "needContainerJit": True
+  },
+ "settlementInfo": {
+    "consignorId": "${companyId}",
+    "costCode": "${costCode}"
+  }
+}</t>
+  </si>
+  <si>
     <t>{"cn_sea_order_id":"$..data"}</t>
   </si>
   <si>
+    <t>{
+ "referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${cn_reference_order_id}"
+   }
+  ],
+"attachments": $__attachment{cn_rail},
+ "shippingInfo": 
+  {
+   "shipper":{                                
+       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
+       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
+               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
+       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
+       "addressCode": "${cn_shipper_addressCode}",         
+       "countryCode": "${cn_shipper_countryCode}",         
+               "countryName": "${cn_shipper_countryName}",         
+       "provinceCode": "${cn_shipper_provinceCode}",        
+               "provinceName": "${cn_shipper_provinceName}",        
+       "cityCode": "${cn_shipper_cityCode}",            
+               "cityName": "${cn_shipper_cityName}",            
+       "districtCode": "${cn_shipper_districtCode}",        
+               "districtName": "${cn_shipper_districtName}",        
+       "streetCode": "${cn_shipper_streetCode}",          
+               "streetName": "${cn_shipper_streetName}",          
+       "addressDetail": "${cn_shipper_addressDetail}",       
+       "postCode": "${cn_shipper_postCode}",            
+       "contactName": "${cn_shipper_contactName}",         
+       "telephoneArea": "${cn_shipper_telephoneArea}",        
+               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
+       "mobileNumber": "${cn_shipper_mobileNumber}",        
+               "mobileArea": "${cn_shipper_mobileArea}",          
+       "email": "${cn_shipper_email}",
+  "isDefault": True,
+  "isInternationalPartner": False
+       },
+ "shippingAddress":{                                      
+     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
+     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
+     "addressCode": "${cn_shippingAddress_addressCode}",              
+     "countryCode": "${cn_shippingAddress_countryCode}",              
+          "countryName": "${cn_shippingAddress_countryName}",              
+     "provinceCode": "${cn_shippingAddress_provinceCode}",             
+          "provinceName": "${cn_shippingAddress_provinceName}",             
+     "cityCode": "${cn_shippingAddress_cityCode}",                 
+          "cityName": "${cn_shippingAddress_cityName}",                 
+     "districtCode": "${cn_shippingAddress_districtCode}",             
+          "districtName": "${cn_shippingAddress_districtName}",             
+     "streetCode": "${cn_shippingAddress_streetCode}",               
+          "streetName": "${cn_shippingAddress_streetName}",               
+     "addressDetail": "${cn_shippingAddress_addressDetail}",            
+     "postCode": "${cn_shippingAddress_postCode}",                 
+     "contactName": "${cn_shippingAddress_contactName}",              
+     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
+          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
+     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
+          "mobileArea": "${cn_shippingAddress_mobileArea}",               
+     "email": "${cn_shippingAddress_email}" ,
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "consignee":{                               
+      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
+      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
+             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
+      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
+      "addressCode": "${cn_consignee_addressCode}",         
+      "countryCode": "${cn_consignee_countryCode}",         
+             "countryName": "${cn_consignee_countryName}",         
+      "provinceCode": "${cn_consignee_provinceCode}",        
+             "provinceName": "${cn_consignee_provinceName}",        
+      "cityCode": "${cn_consignee_cityCode}",            
+             "cityName": "${cn_consignee_cityName}",            
+      "districtCode": "${cn_consignee_districtCode}",        
+             "districtName": "${cn_consignee_districtName}",        
+      "streetCode": "${cn_consignee_streetCode}",          
+             "streetName": "${cn_consignee_streetName}",          
+      "addressDetail": "${cn_consignee_addressDetail}",       
+      "postCode": "${cn_consignee_postCode}",            
+      "contactName": "${cn_consignee_contactName}",         
+      "telephoneArea": "${cn_consignee_telephoneArea}",        
+             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
+      "mobileNumber": "${cn_consignee_mobileNumber}",        
+             "mobileArea": "${cn_consignee_mobileArea}",          
+      "email": "${cn_consignee_email}" ,
+  "isDefault": True,
+  "isInternationalPartner": False
+     },
+ "receivingAddress":{                                      
+      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${cn_receivingAddress_addressCode}",             
+      "countryCode": "${cn_receivingAddress_countryCode}",             
+           "countryName": "${cn_receivingAddress_countryName}",              
+      "provinceCode": "${cn_receivingAddress_provinceCode}",            
+           "provinceName": "${cn_receivingAddress_provinceName}",             
+      "cityCode": "${cn_receivingAddress_cityCode}",                
+           "cityName": "${cn_receivingAddress_cityName}",                 
+      "districtCode": "${cn_receivingAddress_districtCode}",            
+           "districtName": "${cn_receivingAddress_districtName}",             
+      "streetCode": "${cn_receivingAddress_streetCode}",              
+           "streetName": "${cn_receivingAddress_streetName}",               
+      "addressDetail": "${cn_receivingAddress_addressDetail}",           
+      "postCode": "${cn_receivingAddress_postCode}",                
+      "contactName": "${cn_receivingAddress_contactName}",             
+      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
+           "mobileArea": "${cn_receivingAddress_mobileArea}",               
+     "email": "${cn_receivingAddress_email}" ,
+    "isDefault": False,
+ "isInternationalPartner": False  
+    },
+ "notifyParty":{                                  
+         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
+         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
+                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
+         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
+         "addressCode": "${cn_notifyParty_addressCode}",        
+         "countryCode": "${cn_notifyParty_countryCode}",        
+                   "countryName": "${cn_notifyParty_countryName}",        
+         "provinceCode": "${cn_notifyParty_provinceCode}",       
+                   "provinceName": "${cn_notifyParty_provinceName}",       
+         "cityCode": "${cn_notifyParty_cityCode}",           
+                   "cityName": "${cn_notifyParty_cityName}",           
+         "districtCode": "${cn_notifyParty_districtCode}",       
+                   "districtName": "${cn_notifyParty_districtName}",       
+         "streetCode": "${cn_notifyParty_streetCode}",         
+                   "streetName": "${cn_notifyParty_streetName}",         
+         "addressDetail": "${cn_notifyParty_addressDetail}",      
+         "postCode": "${cn_notifyParty_postCode}",           
+         "contactName": "${cn_notifyParty_contactName}",        
+         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
+                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
+         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
+                   "mobileArea": "${cn_notifyParty_mobileArea}",         
+         "email": "${cn_notifyParty_email}",
+  "isDefault": True,
+  "isInternationalPartner": False
+       }, 
+   "pickUp":True,
+   "consigneeId": "${consignee_id}",
+   "takeDelivery":True,
+   "originCityId": "${origin_city_code}",
+   "destinationCityId": "${destion_city_code}",
+   "requiredPickupTime": 1622776198000,
+   "requiredArrivalTime": 1622862598000,
+   "loadingTypeCode": "${cn_rail_load_type_id}",
+   "serviceModeCode": "${cn_rail_server_type_id}",
+   "paymentTypeCode": "${paying_types_id}",
+   "containerInfos": [
+   {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 12
+   },
+    {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 45645645
+   },
+     {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 97894654
+   },
+     {
+    "containerSizeCode": "${container_specification_id}",
+    "containerSizeName": "${container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 45
+   }
+  ],
+  "railwayTransportationNode": {
+   "designatedRailwayStation": True,
+   "dischargeRailwayStationId": "${dest_station_id}",
+   "originRailwayStationId": "${origin_station_id}"
+   }
+  },
+   "cargoInfo": {
+   "cargoTypeCode":"${cargo_types_id}",
+   "grossWeight": 12.86,
+   "grossWeightUnitCode": "${weight_unit_type}",
+   "pieceQty": 11,
+   "pieceQtyUnitCode": "${package_unit_types_id}",
+   "totalPackageQty": 12,
+   "totalPackageQtyUnitCode": "${package_unit_types_id}",
+   "totalVolume": 13,
+   "totalVolumeUnitCode": "${volume_unit_type}",
+   "bulkCartonQty": 14,
+   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+   "cargoDescription": "1231456asdfasdfasdkfj!",
+   "cargoInfoLines": [
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "33333",
+  "netWeight": "4444.55"
+    },
+     {
+  "companyPn": "${@INT}",
+  "descriptionGoods": "${@SYMBOL}",
+  "hsCode": "${@SYMBOL}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 8700,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "1${@INT}",
+  "width": "2${@INT}",
+  "amount": "3${@INT}",
+  "height": "4${@INT}",
+  "length": "5${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "33333",
+  "netWeight": "4444.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 456446456,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}45",
+  "width": "${@INT}.01",
+  "amount": "${@INT}.4",
+  "height": "4${@INT}.1",
+  "length": "${@INT}.11",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "33333",
+  "netWeight": "4444.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity":465456,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "3${@INT}",
+  "width": "${@INT}",
+  "amount": "1${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "33333",
+  "netWeight": "4444.55"
+    }
+   ] 
+    },
+ "valueAddedBusiness": {
+   "cargoValue": 10.00,
+   "currencyCode": "${currencyCode}",
+   "insurance": True,
+   "needContainerJit": True
+  },
+ "settlementInfo": {
+    "consignorId": "${companyId}",
+    "costCode": "${costCode}"
+  }
+}</t>
+  </si>
+  <si>
     <t>{"cn_rail_order_id":"$..data"}</t>
   </si>
   <si>
+    <t>{
+"referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${cn_reference_order_id}"
+   }
+  ],
+ "attachments": $__attachment{cn_express},
+ "shippingInfo": 
+  {
+   "shipper":{                                
+       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
+       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
+               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
+       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
+       "addressCode": "${cn_shipper_addressCode}",         
+       "countryCode": "${cn_shipper_countryCode}",         
+               "countryName": "${cn_shipper_countryName}",         
+       "provinceCode": "${cn_shipper_provinceCode}",        
+               "provinceName": "${cn_shipper_provinceName}",        
+       "cityCode": "${cn_shipper_cityCode}",            
+               "cityName": "${cn_shipper_cityName}",            
+       "districtCode": "${cn_shipper_districtCode}",        
+               "districtName": "${cn_shipper_districtName}",        
+       "streetCode": "${cn_shipper_streetCode}",          
+               "streetName": "${cn_shipper_streetName}",          
+       "addressDetail": "${cn_shipper_addressDetail}",       
+       "postCode": "${cn_shipper_postCode}",            
+       "contactName": "${cn_shipper_contactName}",         
+       "telephoneArea": "${cn_shipper_telephoneArea}",        
+               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
+       "mobileNumber": "${cn_shipper_mobileNumber}",        
+               "mobileArea": "${cn_shipper_mobileArea}",          
+       "email": "${cn_shipper_email}",
+  "isDefault": True,
+  "isInternationalPartner": False
+       },
+ "shippingAddress":{                                      
+     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
+     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
+     "addressCode": "${cn_shippingAddress_addressCode}",              
+     "countryCode": "${cn_shippingAddress_countryCode}",              
+          "countryName": "${cn_shippingAddress_countryName}",              
+     "provinceCode": "${cn_shippingAddress_provinceCode}",             
+          "provinceName": "${cn_shippingAddress_provinceName}",             
+     "cityCode": "${cn_shippingAddress_cityCode}",                 
+          "cityName": "${cn_shippingAddress_cityName}",                 
+     "districtCode": "${cn_shippingAddress_districtCode}",             
+          "districtName": "${cn_shippingAddress_districtName}",             
+     "streetCode": "${cn_shippingAddress_streetCode}",               
+          "streetName": "${cn_shippingAddress_streetName}",               
+     "addressDetail": "${cn_shippingAddress_addressDetail}",            
+     "postCode": "${cn_shippingAddress_postCode}",                 
+     "contactName": "${cn_shippingAddress_contactName}",              
+     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
+          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
+     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
+          "mobileArea": "${cn_shippingAddress_mobileArea}",               
+     "email": "${cn_shippingAddress_email}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "consignee":{                               
+      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
+      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
+             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
+      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
+      "addressCode": "${cn_consignee_addressCode}",         
+      "countryCode": "${cn_consignee_countryCode}",         
+             "countryName": "${cn_consignee_countryName}",         
+      "provinceCode": "${cn_consignee_provinceCode}",        
+             "provinceName": "${cn_consignee_provinceName}",        
+      "cityCode": "${cn_consignee_cityCode}",            
+             "cityName": "${cn_consignee_cityName}",            
+      "districtCode": "${cn_consignee_districtCode}",        
+             "districtName": "${cn_consignee_districtName}",        
+      "streetCode": "${cn_consignee_streetCode}",          
+             "streetName": "${cn_consignee_streetName}",          
+      "addressDetail": "${cn_consignee_addressDetail}",       
+      "postCode": "${cn_consignee_postCode}",            
+      "contactName": "${cn_consignee_contactName}",         
+      "telephoneArea": "${cn_consignee_telephoneArea}",        
+             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
+      "mobileNumber": "${cn_consignee_mobileNumber}",        
+             "mobileArea": "${cn_consignee_mobileArea}",          
+      "email": "${cn_consignee_email}" ,
+ "isDefault": True,
+ "isInternationalPartner": False
+     },
+ "receivingAddress":{                                      
+      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${cn_receivingAddress_addressCode}",             
+      "countryCode": "${cn_receivingAddress_countryCode}",             
+           "countryName": "${cn_receivingAddress_countryName}",              
+      "provinceCode": "${cn_receivingAddress_provinceCode}",            
+           "provinceName": "${cn_receivingAddress_provinceName}",             
+      "cityCode": "${cn_receivingAddress_cityCode}",                
+           "cityName": "${cn_receivingAddress_cityName}",                 
+      "districtCode": "${cn_receivingAddress_districtCode}",            
+           "districtName": "${cn_receivingAddress_districtName}",             
+      "streetCode": "${cn_receivingAddress_streetCode}",              
+           "streetName": "${cn_receivingAddress_streetName}",               
+      "addressDetail": "${cn_receivingAddress_addressDetail}",           
+      "postCode": "${cn_receivingAddress_postCode}",                
+      "contactName": "${cn_receivingAddress_contactName}",             
+      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
+           "mobileArea": "${cn_receivingAddress_mobileArea}",               
+     "email": "${cn_receivingAddress_email}" ,
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+   "pickUp":True,
+   "takeDelivery":True,
+   "originCityId": "${origin_city_code}",
+   "destinationCityId": "${destion_city_code}",
+   "requiredPickupTime": 1622776198000,
+   "requiredArrivalTime": 1622862598000,
+   "serviceModeCode": "${cn_express_server_type_id}",
+   "paymentTypeCode":"${express_paying_types_id}"
+  },
+   "cargoInfo": {
+   "cargoTypeCode":"${cargo_types_id}",
+   "grossWeight": 12.86,
+   "grossWeightUnitCode": "${weight_unit_type}",
+   "pieceQty": 11,
+   "pieceQtyUnitCode": "${package_unit_types_id}",
+   "totalPackageQty": 12,
+   "totalPackageQtyUnitCode": "${package_unit_types_id}",
+   "totalVolume": 13,
+   "totalVolumeUnitCode": "${volume_unit_type}",
+   "bulkCartonQty": 14,
+   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+   "cargoDescription": "1231456asdfasdfasdkfj!",
+   "cargoInfoLines": [
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "1${@INT}",
+  "volume": "2${@INT}",
+  "width": "${@INT}3",
+  "amount": "${@INT}4",
+  "height": "4${@INT}",
+  "length": "${@INT}7",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "12345678.11",
+  "netWeight": "12345.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}1",
+  "volume": "${@INT}2",
+  "width": "${@INT}3",
+  "amount": "${@INT}5",
+  "height": "4${@INT}",
+  "length": "${@INT}9",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44512.1455",
+  "netWeight": "4589.55"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}1",
+  "volume": "${@INT}9",
+  "width": "${@INT}9",
+  "amount": "${@INT}7",
+  "height": "${@INT}4",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "789456.1152",
+  "netWeight": "123456.5577"
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}1",
+  "volume": "${@INT}8",
+  "width": "${@INT}7",
+  "amount": "${@INT}4",
+  "height": "4${@INT}6",
+  "length": "${@INT}3",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44545231.1125",
+  "netWeight": "444.55"
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "3214521.1154",
+  "netWeight": "123456.55"
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}1",
+  "volume": "${@INT}",
+  "width": "${@INT}7",
+  "amount": "${@INT}5",
+  "height": "4${@INT}",
+  "length": "${@INT}2",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "222222.456456",
+  "netWeight": "32144.456789"
+    },
+   {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}1",
+  "volume": "${@INT}2",
+  "width": "${@INT}3",
+  "amount": "${@INT}4",
+  "height": "4${@INT}",
+  "length": "${@INT}5",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "111.11254",
+  "netWeight": "44.5566"
+    },
+   ] 
+    },
+ "valueAddedBusiness": {
+   "cargoValue": 10.00,
+   "currencyCode": "${currencyCode}",
+   "insurance": True,
+   "pod": True
+  },
+ "settlementInfo": {
+    "consignorId": "${companyId}",
+    "costCode": "${costCode}"
+  }
+}</t>
+  </si>
+  <si>
     <t>{"cn_express_order_id":"$..data"}</t>
   </si>
   <si>
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/domestic-express/submit/${cn_express_order_id}</t>
+  </si>
+  <si>
+    <t>{
+"referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${internat_reference_order_id}"
+   }
+  ],
+ "attachments": $__attachment{internat_express},
+ "shippingInfo": 
+  {
+   "shipper":{                                
+       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
+       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
+               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
+       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
+       "addressCode": "${cn_shipper_addressCode}",         
+       "countryCode": "${cn_shipper_countryCode}",         
+               "countryName": "${cn_shipper_countryName}",         
+       "provinceCode": "${cn_shipper_provinceCode}",        
+               "provinceName": "${cn_shipper_provinceName}",        
+       "cityCode": "${cn_shipper_cityCode}",            
+               "cityName": "${cn_shipper_cityName}",            
+       "districtCode": "${cn_shipper_districtCode}",        
+               "districtName": "${cn_shipper_districtName}",        
+       "streetCode": "${cn_shipper_streetCode}",          
+               "streetName": "${cn_shipper_streetName}",          
+       "addressDetail": "${cn_shipper_addressDetail}",       
+       "postCode": "${cn_shipper_postCode}",            
+       "contactName": "${cn_shipper_contactName}",         
+       "telephoneArea": "${cn_shipper_telephoneArea}",        
+               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
+       "mobileNumber": "${cn_shipper_mobileNumber}",        
+               "mobileArea": "${cn_shipper_mobileArea}",          
+       "email": "${cn_shipper_email}",
+  "isDefault": True,
+  "isInternationalPartner": False,
+  "transportLocationCode": "${internat_shipper_transportLocationCode}"
+       },
+ "shippingAddress":{                                      
+     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
+     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
+     "addressCode": "${cn_shippingAddress_addressCode}",              
+     "countryCode": "${cn_shippingAddress_countryCode}",              
+          "countryName": "${cn_shippingAddress_countryName}",              
+     "provinceCode": "${cn_shippingAddress_provinceCode}",             
+          "provinceName": "${cn_shippingAddress_provinceName}",             
+     "cityCode": "${cn_shippingAddress_cityCode}",                 
+          "cityName": "${cn_shippingAddress_cityName}",                 
+     "districtCode": "${cn_shippingAddress_districtCode}",             
+          "districtName": "${cn_shippingAddress_districtName}",             
+     "streetCode": "${cn_shippingAddress_streetCode}",               
+          "streetName": "${cn_shippingAddress_streetName}",               
+     "addressDetail": "${cn_shippingAddress_addressDetail}",            
+     "postCode": "${cn_shippingAddress_postCode}",                 
+     "contactName": "${cn_shippingAddress_contactName}",              
+     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
+          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
+     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
+          "mobileArea": "${cn_shippingAddress_mobileArea}",               
+     "email": "${cn_shippingAddress_email}",
+  "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+ "consignee":{                               
+      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
+      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
+             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
+      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
+      "addressCode": "${cn_consignee_addressCode}",         
+      "countryCode": "${cn_consignee_countryCode}",         
+             "countryName": "${cn_consignee_countryName}",         
+      "provinceCode": "${cn_consignee_provinceCode}",        
+             "provinceName": "${cn_consignee_provinceName}",        
+      "cityCode": "${cn_consignee_cityCode}",            
+             "cityName": "${cn_consignee_cityName}",            
+      "districtCode": "${cn_consignee_districtCode}",        
+             "districtName": "${cn_consignee_districtName}",        
+      "streetCode": "${cn_consignee_streetCode}",          
+             "streetName": "${cn_consignee_streetName}",          
+      "addressDetail": "${cn_consignee_addressDetail}",       
+      "postCode": "${cn_consignee_postCode}",            
+      "contactName": "${cn_consignee_contactName}",         
+      "telephoneArea": "${cn_consignee_telephoneArea}",        
+             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
+      "mobileNumber": "${cn_consignee_mobileNumber}",        
+             "mobileArea": "${cn_consignee_mobileArea}",          
+      "email": "${cn_consignee_email}" ,
+   "transportLocationCode": "${internat_consignee_transportLocationCode}" ,
+ "isDefault": True,
+ "isInternationalPartner": False
+     },
+ "receivingAddress":{                                      
+      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
+      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
+      "addressCode": "${cn_receivingAddress_addressCode}",             
+      "countryCode": "${cn_receivingAddress_countryCode}",             
+           "countryName": "${cn_receivingAddress_countryName}",              
+      "provinceCode": "${cn_receivingAddress_provinceCode}",            
+           "provinceName": "${cn_receivingAddress_provinceName}",             
+      "cityCode": "${cn_receivingAddress_cityCode}",                
+           "cityName": "${cn_receivingAddress_cityName}",                 
+      "districtCode": "${cn_receivingAddress_districtCode}",            
+           "districtName": "${cn_receivingAddress_districtName}",             
+      "streetCode": "${cn_receivingAddress_streetCode}",              
+           "streetName": "${cn_receivingAddress_streetName}",               
+      "addressDetail": "${cn_receivingAddress_addressDetail}",           
+      "postCode": "${cn_receivingAddress_postCode}",                
+      "contactName": "${cn_receivingAddress_contactName}",             
+      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
+           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
+      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
+           "mobileArea": "${cn_receivingAddress_mobileArea}",               
+     "email": "${cn_receivingAddress_email}" ,
+  "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
+ "isDefault": False,
+ "isInternationalPartner": False
+    },
+   "pickUp":True,
+   "takeDelivery":True,
+   "originCityId": "${origin_city_code}",
+   "destinationCityId": "${destion_city_code}",
+   "requiredPickupTime": 1622776198000,
+   "requiredArrivalTime": 1622862598000,
+   "serviceModeCode": "${internat_express_server_type_id}",
+   "paymentTypeCode": "${express_paying_types_id}",
+   "originLocationCode": "${internat_shipper_transportLocationCode}",
+   "destinationLocationCode": "${internat_consignee_transportLocationCode}",
+   "incotermsCode":"${incoterms_id}"
+  },
+   "cargoInfo": {
+   "cargoTypeCode":"${cargo_types_id}",
+   "grossWeight": 12.86,
+   "grossWeightUnitCode": "${weight_unit_type}",
+   "pieceQty": 11,
+   "pieceQtyUnitCode": "${package_unit_types_id}",
+   "totalPackageQty": 12,
+   "totalPackageQtyUnitCode": "${package_unit_types_id}",
+   "totalVolume": 13,
+   "totalVolumeUnitCode": "${volume_unit_type}",
+   "bulkCartonQty": 14,
+   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+   "cargoDescription": "1231456asdfasdfasdkfj!",
+   "cargoInfoLines": [
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "1${@INT}",
+  "volume": "${@INT}2",
+  "width": "${@INT}3",
+  "amount": "${@INT}4",
+  "height": "4${@INT}",
+  "length": "${@INT}7",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "12345678.11",
+  "netWeight": "12345.55",
+  "cargoQuantity": 8456456123
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}0",
+  "volume": "${@INT}8",
+  "width": "${@INT}9",
+  "amount": "${@INT}4",
+  "height": "4${@INT}",
+  "length": "${@INT}6",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44512.1455",
+  "netWeight": "4589.55",
+  "cargoQuantity": 33454654871
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}1",
+  "width": "${@INT}0",
+  "amount": "${@INT}0",
+  "height": "4${@INT}",
+  "length": "${@INT}4",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "789456.1152",
+  "netWeight": "123456.5577",
+  "cargoQuantity": 8545123132
+    },
+     {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "44545231.1125",
+  "netWeight": "444.55",
+  "cargoQuantity": 564645641
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}0",
+  "width": "${@INT}5",
+  "amount": "${@INT}3",
+  "height": "4${@INT}",
+  "length": "${@INT}9",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "3214521.1154",
+  "netWeight": "123456.55",
+  "cargoQuantity": 212123132
+    },
+    {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "222222.456456",
+  "netWeight": "32144.456789",
+  "cargoQuantity": 123123123
+    },
+   {
+  "companyPn": "${@LETTER}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1200,
+  "packageUnitCode": "${units_id}",
+  "referenceLineNo": "${@LETTER}",
+  "referenceNo": "${@LETTER}",
+  "unitPrice": "${@INT}",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "111.11254",
+  "netWeight": "44.5566",
+  "cargoQuantity": 888115465456
+    },
+   ] 
+    },
+ "valueAddedBusiness": {
+   "cargoValue": 10.00,
+   "currencyCode": "${currencyCode}",
+   "insurance": True,
+   "pod": True
+  },
+ "settlementInfo": {
+    "consignorId": "${companyId}",
+    "costCode": "${costCode}"
+  }
+}</t>
   </si>
   <si>
     <t>{"inernat_express_order_id":"$..data"}</t>
@@ -13571,8 +14629,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -13604,9 +14662,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13621,14 +14685,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13636,7 +14716,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13650,6 +14730,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -13658,16 +14769,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13686,63 +14798,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13775,7 +14833,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13793,13 +14905,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13817,7 +14953,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13829,55 +14989,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13889,73 +15013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13984,6 +15042,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13995,26 +15077,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14037,8 +15099,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14057,30 +15139,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -14089,10 +15147,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14101,133 +15159,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14850,8 +15908,8 @@
   <sheetPr/>
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="D87" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView topLeftCell="B87" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17025,7 +18083,7 @@
   <sheetPr/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -18617,10 +19675,10 @@
         <v>486</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1121</v>
+        <v>1894</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -18667,10 +19725,10 @@
         <v>486</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>982</v>
+        <v>1896</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>35</v>
@@ -18717,10 +19775,10 @@
         <v>486</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>843</v>
+        <v>1898</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>35</v>
@@ -18767,10 +19825,10 @@
         <v>486</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>635</v>
+        <v>1900</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1897</v>
+        <v>1901</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>35</v>
@@ -18814,10 +19872,10 @@
         <v>486</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1247</v>
+        <v>1902</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>35</v>
@@ -18831,7 +19889,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
@@ -18858,10 +19916,10 @@
         <v>486</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1691</v>
+        <v>1905</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>1900</v>
+        <v>1906</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>35</v>
@@ -18875,7 +19933,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1901</v>
+        <v>1907</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
@@ -18897,10 +19955,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -18916,7 +19974,7 @@
     <col min="9" max="9" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18943,6 +20001,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="88" customHeight="1" spans="1:9">
@@ -18950,23 +20011,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1902</v>
+        <v>1908</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1903</v>
+        <v>1909</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1904</v>
+        <v>1910</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>35</v>
@@ -18977,20 +20038,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1906</v>
+        <v>1912</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1903</v>
+        <v>1909</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1907</v>
+        <v>1913</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
@@ -18999,24 +20060,24 @@
     </row>
     <row r="4" ht="108" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>1908</v>
+        <v>1914</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1909</v>
+        <v>1915</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>486</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1910</v>
+        <v>1916</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>1911</v>
+        <v>1917</v>
       </c>
     </row>
   </sheetData>
@@ -19031,8 +20092,8 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22009,8 +23070,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="D113" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="B110" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24753,8 +25814,8 @@
   <sheetPr/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="D113" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="B110" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27796,8 +28857,8 @@
   <sheetPr/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="E100" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView topLeftCell="B98" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -30256,8 +31317,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="D112" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="B110" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32999,8 +34060,8 @@
   <sheetPr/>
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView topLeftCell="C87" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView topLeftCell="B86" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -35174,8 +36235,8 @@
   <sheetPr/>
   <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView topLeftCell="D128" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+    <sheetView topLeftCell="B125" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38572,8 +39633,8 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="E110" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView topLeftCell="B107" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -2009,7 +2009,7 @@
     },
     "pageCondition": {
         "pageIndex": 1,
-        "pageSize": 1000
+        "pageSize": 20
     }
 }</t>
   </si>
@@ -14650,32 +14650,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14686,40 +14663,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14739,9 +14686,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14764,9 +14731,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14778,16 +14785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14820,13 +14820,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14838,7 +14868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14850,61 +14892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14922,13 +14910,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14940,31 +14940,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14976,13 +14988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14995,12 +15001,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15029,26 +15029,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15068,11 +15053,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15081,7 +15083,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15118,11 +15120,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15134,10 +15134,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15146,133 +15146,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15895,8 +15895,8 @@
   <sheetPr/>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20026,8 +20026,8 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -14637,8 +14637,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -14684,8 +14684,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14703,6 +14704,44 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14738,45 +14777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14800,13 +14801,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -14841,7 +14841,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14853,31 +14877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14895,7 +14901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14908,6 +14920,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14931,19 +14955,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14955,13 +15003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14973,55 +15021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15050,24 +15050,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -15086,8 +15068,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15122,6 +15115,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -15139,11 +15141,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15155,10 +15155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15167,19 +15167,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15188,112 +15188,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18120,7 +18120,7 @@
   <sheetPr/>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -20049,8 +20049,8 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23027,8 +23027,8 @@
   <sheetPr/>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -13468,13 +13468,13 @@
     <t>0967</t>
   </si>
   <si>
-    <t>{"express_order_id":"$..data","save_international_express_params":"input_params"}</t>
+    <t>{"internat_express_order_id":"$..data","save_international_express_params":"input_params"}</t>
   </si>
   <si>
     <t>0968</t>
   </si>
   <si>
-    <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-express/submit/${express_order_id}</t>
+    <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-express/submit/${internat_express_order_id}</t>
   </si>
   <si>
     <t>0969</t>
@@ -14638,9 +14638,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -14671,14 +14671,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14686,7 +14686,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14715,15 +14744,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14734,14 +14764,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14770,14 +14792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14794,21 +14809,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14841,6 +14841,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14853,19 +14931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14883,13 +14961,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14907,25 +14997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14937,91 +15021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15051,16 +15051,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15070,32 +15070,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15117,24 +15091,50 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15155,10 +15155,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15167,133 +15167,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15917,7 +15917,7 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18120,8 +18120,8 @@
   <sheetPr/>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20049,7 +20049,7 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -25800,7 +25800,7 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView topLeftCell="B110" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28861,8 +28861,8 @@
   <sheetPr/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -31349,8 +31349,8 @@
   <sheetPr/>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34121,8 +34121,8 @@
   <sheetPr/>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36325,8 +36325,8 @@
   <sheetPr/>
   <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -39742,8 +39742,8 @@
   <sheetPr/>
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="2"/>
+    <workbookView windowWidth="23325" windowHeight="9990" tabRatio="778" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -6594,7 +6594,7 @@
 ["Equal","1.000011","$..height"],
 ["Equal","1.000011","$..length"],
 ["Equal","${currencyCode}","$..currencyCode"],
-["Equal","33.000011","$..grossWeight"],
+["Equal","333.000011","$..grossWeight"],
 ["Equal","44.000011","$..netWeight"],
 ["Equal","TPM_SEA","$..shippingModeCode"],
 ]</t>
@@ -19338,10 +19338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -19371,16 +19371,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19402,53 +19462,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19460,16 +19476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19483,17 +19491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19508,10 +19508,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -19542,13 +19542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19560,7 +19566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19572,13 +19596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19590,7 +19614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19608,19 +19638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19632,13 +19656,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19650,31 +19686,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19692,37 +19722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19764,26 +19764,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -19799,21 +19799,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -19836,6 +19821,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -19847,17 +19847,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -19869,10 +19869,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19881,133 +19881,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -30934,7 +30934,7 @@
   <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -31442,7 +31442,7 @@
   <sheetPr/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
@@ -34478,8 +34478,8 @@
   <sheetPr/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="C116" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -19894,29 +19894,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19946,16 +19941,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19977,6 +19987,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -19985,23 +20023,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -20011,30 +20035,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -20065,7 +20065,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20083,156 +20185,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -20245,7 +20197,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20306,22 +20306,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20341,46 +20370,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20392,10 +20392,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -20404,133 +20404,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21161,8 +21161,8 @@
   <sheetPr/>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23864,7 +23864,7 @@
         <v>868</v>
       </c>
       <c r="J113">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" ht="189" spans="1:9">
@@ -24013,7 +24013,7 @@
         <v>868</v>
       </c>
       <c r="J119">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" ht="189" spans="1:9">
@@ -24054,8 +24054,8 @@
   <sheetPr/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -26214,7 +26214,7 @@
         <v>868</v>
       </c>
       <c r="J90">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="189" spans="1:9">
@@ -26363,7 +26363,7 @@
         <v>868</v>
       </c>
       <c r="J96">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="189" spans="1:9">
@@ -32042,8 +32042,8 @@
   <sheetPr/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34882,7 +34882,7 @@
         <v>868</v>
       </c>
       <c r="J114" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="189" spans="1:10">
@@ -35036,7 +35036,7 @@
         <v>868</v>
       </c>
       <c r="J120" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" ht="189" spans="1:10">
@@ -35078,8 +35078,8 @@
   <sheetPr/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="B117" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView topLeftCell="B113" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -37806,7 +37806,7 @@
         <v>868</v>
       </c>
       <c r="J114">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="189" spans="1:9">
@@ -37955,7 +37955,7 @@
         <v>868</v>
       </c>
       <c r="J120">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" ht="189" spans="1:9">
@@ -38226,8 +38226,8 @@
   <sheetPr/>
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -40670,7 +40670,7 @@
         <v>868</v>
       </c>
       <c r="J102">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="189" spans="1:9">
@@ -40819,7 +40819,7 @@
         <v>868</v>
       </c>
       <c r="J108">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" ht="189" spans="1:9">
@@ -40860,8 +40860,8 @@
   <sheetPr/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -43588,7 +43588,7 @@
         <v>868</v>
       </c>
       <c r="J114">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" ht="189" spans="1:9">
@@ -43737,7 +43737,7 @@
         <v>868</v>
       </c>
       <c r="J120">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" ht="189" spans="1:9">
@@ -43778,8 +43778,8 @@
   <sheetPr/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -45938,7 +45938,7 @@
         <v>868</v>
       </c>
       <c r="J90">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="189" spans="1:9">
@@ -46087,7 +46087,7 @@
         <v>868</v>
       </c>
       <c r="J96">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" ht="189" spans="1:9">
@@ -46128,8 +46128,8 @@
   <sheetPr/>
   <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
   </si>
   <si>
     <t>{
-"cn_subdivisionCode_1":"$..result[*].code",
-"cn_subdivisionCode_2":"$..result[*].code",
+"cn_subdivisionCode_1":"$..result[*].code_exclusive['CN-92','CN-46']",
+"cn_subdivisionCode_2":"$..result[*].code_exclusive['CN-92','CN-46']",
 }</t>
   </si>
   <si>
@@ -596,7 +596,7 @@
   </si>
   <si>
     <t>{
-"cn_cityCode_1":"$..result[*].code",
+"cn_cityCode_1":"$..result[*].code_exclusive['SCI105661','SCI105662','SCI105765']",
 "cn_cityName_1":"$..result[*].nameLocal"
 }</t>
   </si>
@@ -614,7 +614,7 @@
   </si>
   <si>
     <t>{
-"cn_cityCode_2":"$..result[*].code",
+"cn_cityCode_2":"$..result[*].code_exclusive['SCI105661','SCI105662','SCI105765']",
 "cn_cityName_2":"$..result[*].nameLocal"
 }</t>
   </si>
@@ -877,7 +877,7 @@
   </si>
   <si>
     <t>{
-"vehicle_type_id":"$..id",
+"vehicle_type_id":"$..id_exclusive['TKG_SFW','TKG_CCA','G_MIN','TKG_ACV','TKG_RCB']",
 "vehicle_type_code":"$..code",
 "vehicle_type_name":"$..name"
 }</t>
@@ -2055,7 +2055,7 @@
     <t>{
     "transportLocationSearchCondition": {
         "externalSystemCodeIn": ["UN", "CARGOWISE"],
-        "idIn":["${city_five_code_1}"],
+          "cityCodeEq":"SCI105647",
         "cityCodeNull": False
     },
     "pageCondition": {
@@ -2088,7 +2088,7 @@
     <t>{
     "transportLocationSearchCondition": {
         "externalSystemCodeIn": ["UN", "CARGOWISE"],
-        "idIn":["${city_five_code_2}"],
+        "cityCodeEq":"SCI106141",
         "cityCodeNull": False
     },
     "pageCondition": {
@@ -19894,9 +19894,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19911,7 +19917,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19925,17 +19969,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19943,7 +19986,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19965,51 +20008,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -20024,15 +20023,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -20065,7 +20065,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20077,31 +20113,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20113,25 +20149,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20149,13 +20185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20167,7 +20209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20179,19 +20221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20203,25 +20233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20233,19 +20245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20287,21 +20287,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -20328,9 +20313,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20338,19 +20355,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20370,17 +20376,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20392,10 +20392,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -20404,133 +20404,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -24054,7 +24054,7 @@
   <sheetPr/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
@@ -28358,8 +28358,8 @@
   <sheetPr/>
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28795,7 +28795,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" ht="94.5" spans="1:10">
+    <row r="16" ht="121.5" spans="1:10">
       <c r="A16" s="32" t="s">
         <v>93</v>
       </c>
@@ -28821,7 +28821,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" ht="94.5" spans="1:10">
+    <row r="17" ht="108" spans="1:10">
       <c r="A17" s="32" t="s">
         <v>98</v>
       </c>
@@ -28847,7 +28847,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" ht="94.5" spans="1:10">
+    <row r="18" ht="108" spans="1:10">
       <c r="A18" s="32" t="s">
         <v>103</v>
       </c>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7450" uniqueCount="2935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7450" uniqueCount="2923">
   <si>
     <t>case_id</t>
   </si>
@@ -877,7 +877,7 @@
   </si>
   <si>
     <t>{
-"vehicle_type_id":"$..id_exclusive['TKG_SFW','TKG_CCA','G_MIN','TKG_ACV','TKG_RCB']",
+"vehicle_type_id":"$..id_exclusive['TKG_SFW','TKG_CCA','TKG_ACV','TKG_RCB','TKG_MIN']",
 "vehicle_type_code":"$..code",
 "vehicle_type_name":"$..name"
 }</t>
@@ -2055,7 +2055,8 @@
     <t>{
     "transportLocationSearchCondition": {
         "externalSystemCodeIn": ["UN", "CARGOWISE"],
-          "cityCodeEq":"SCI105647",
+          "cityCodeEq":None,
+          "idOrNameOrLocalLike":"CNSZZ",
         "cityCodeNull": False
     },
     "pageCondition": {
@@ -2088,7 +2089,8 @@
     <t>{
     "transportLocationSearchCondition": {
         "externalSystemCodeIn": ["UN", "CARGOWISE"],
-        "cityCodeEq":"SCI106141",
+        "cityCodeEq":None,
+        "idOrNameOrLocalLike":"USLAX",
         "cityCodeNull": False
     },
     "pageCondition": {
@@ -13490,7 +13492,7 @@
     <t>运输下单-运输需求-获取OMS国际海运订单号，订单号不能为空</t>
   </si>
   <si>
-    <t>/juslink-sccp-shipment-demand-app/shipment-demand/${submit_internat_sea_order_id}/order-status</t>
+    <t>/juslink-sccp-shipment-demand-app/shipment-demand/${internat_sea_order_id}/order-status</t>
   </si>
   <si>
     <t>0764</t>
@@ -13499,7 +13501,7 @@
     <t>运输下单-国际海运-撤回</t>
   </si>
   <si>
-    <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-sea/withdraw/${submit_internat_sea_order_id}</t>
+    <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-sea/withdraw/${internat_sea_order_id}</t>
   </si>
   <si>
     <t>运输PO下单-采购订单-国际海运保存为运输需求</t>
@@ -18275,8 +18277,8 @@
    "originLocationCode":"${five_word_id_3}",
    "destinationCityId": "${internat_cityCode_2}",
    "destinationLocationCode":"${five_word_id_4}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
+   "reqTimeOfDepart": 1622776198000,
+   "reqTimeOfArrival ": 1622862598000,
    "etd": 1657784368000,
    "eta": 1689320368000,
    "serviceModeCode": "${internat_air_server_type_id}",
@@ -18331,25 +18333,23 @@
   "currencyCode": "${currencyCode}",
   "insurance": True,
   "entrustCustomsDeclaration": False,
-  "customsBroker":"{@INT}",
+  "customsBroker":"{INT}",
   "insuredValue":11
  },
-"attachments": $__attachment{internat_air},
 "documentsAttachesGenerate":{
- "letterOfAttorneyGenerate":False
+ "letterOfAttorneyGenerate":True
 }
 }</t>
   </si>
   <si>
-    <t>{"inernat_air_order_id":"$..data"}</t>
-  </si>
-  <si>
     <t>{
 "remarks": "123456asdfasdf",
+"sourceOrderType":"PO",
+"id":"${internatal_sea_po_save_order_id}",
 "referenceOrders":
  [
   {
-   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderNo": "${internatal_sea_po_no}",
    "referenceOrderType": "${internat_reference_order_id}"
    }
   ],
@@ -18362,8 +18362,8 @@
    "originSeaportId": "${sea_origin_id}",
    "dischargeSeaportId": "${sea_dest_id}"
   }, 
-  "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
+  "reqTimeOfDepart": 1622776198000,
+   "reqTimeOfArrival ": 1622862598000,
   "etd": 1657784368000,
    "eta": 1689320368000,
    "loadingTypeCode": "${internat_sea_load_type_id}",
@@ -18567,1258 +18567,47 @@
   "bulkCartonQty": 14,
   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
   "cargoDescription": "1231456asdfasdfasdkfj!",
-  "cargoInfoLines": [
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
+"cargoInfoLines": [
+    {
+  "companyPn": "${internatal_sea_part_no}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1,
+  "packageUnitCode": "${internat_line_units_id}",
+  "referenceLineNo": "${internatal_sea_po_line}",
+  "referenceNo": "${internatal_sea_po_no}",
+  "unitPrice": "1.000011",
+  "volume": "1.000011",
+  "width": "1.000011",
+  "amount": "1.000011",
+  "height": "1.000011",
+  "length": "1.000011",
   "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   }
-  ]
+  "grossWeight": "33.000011",
+  "netWeight": "30.000011"
+    }
+   ]
  }, 
  "valueAddedBusiness": {
   "cargoValue": 10,
   "currencyCode": "${currencyCode}",
   "insurance": True,
   "entrustCustomsDeclaration":False,
-  "customsBroker":"${@INT}",
+  "customsBroker":"${INT}",
   "insuredValue":11
  },
 "attachments": $__attachment{internat_sea}
 }</t>
   </si>
   <si>
-    <t>{"internat_sea_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{cn_road},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}" ,
- "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
- "isDefault": False,
- "isInternationalPartner": False
-    },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "loadingTypeCode": "${cn_road_load_type_id}",
-   "serviceModeCode": "${cn_road_server_type_id}",
-   "containerInfos": [
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   }
-  ],
-  "vehicleInfos": [
-   {
-    "needCustomsSupervision": "${customsSupervisionFlag}",
-    "vehicleQty": 11,
-    "vehicleSpecificationCode": "${vehicle_specification_id}",
-    "vehicleTypeCode": "${vehicle_type_id}"
-   }
-  ],
-  "uturn": True,
-  "uturnAreaCode": "${bonded_area_id}",
-  "uturnDocumentCode": "${uturn_document_id}"
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@PHONE}",
-  "width": "${@PHONE}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@PHONE}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "12345678.11",
-  "netWeight": "12345.55"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "needContainerJit": True,
-   "needDischarge": True,
-   "needLoad": False,
-   "pod": True,
-   "speedway": True,
-   "urgent": True,
-   "needEscort":True,
-   "escortTypeCode":"${escort_type_id}"
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"road_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
- "referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{cn_air},
- "shippingInfo": 
-  {
-  "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}" ,
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}",
- "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "notifyParty":{                                  
-         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
-         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
-                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
-         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
-         "addressCode": "${cn_notifyParty_addressCode}",        
-         "countryCode": "${cn_notifyParty_countryCode}",        
-                   "countryName": "${cn_notifyParty_countryName}",        
-         "provinceCode": "${cn_notifyParty_provinceCode}",       
-                   "provinceName": "${cn_notifyParty_provinceName}",       
-         "cityCode": "${cn_notifyParty_cityCode}",           
-                   "cityName": "${cn_notifyParty_cityName}",           
-         "districtCode": "${cn_notifyParty_districtCode}",       
-                   "districtName": "${cn_notifyParty_districtName}",       
-         "streetCode": "${cn_notifyParty_streetCode}",         
-                   "streetName": "${cn_notifyParty_streetName}",         
-         "addressDetail": "${cn_notifyParty_addressDetail}",      
-         "postCode": "${cn_notifyParty_postCode}",           
-         "contactName": "${cn_notifyParty_contactName}",        
-         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
-                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
-         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
-                   "mobileArea": "${cn_notifyParty_mobileArea}",         
-         "email": "${cn_notifyParty_email}" ,
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "serviceModeCode": "${cn_air_server_type_id}",
-   "paymentTypeCode": "${paying_types_id}",
-   "marksAndNumbers":"${@CHAR}",
-   "containerInfo": [
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   }
-  ],
-  "airTransportationNode": {
-   "designatedAirport": True,
-   "dischargeAirportId": "${air_dest_id}",
-   "originAirportId": "${air_origin_id}"
-  }
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}7",
-  "width": "${@INT}8",
-  "amount": "${@INT}9",
-  "height": "4${@INT}",
-  "length": "${@INT}1",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "urgent": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"cn_air_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{cn_sea},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}",
-  "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "notifyParty":{                                  
-         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
-         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
-                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
-         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
-         "addressCode": "${cn_notifyParty_addressCode}",        
-         "countryCode": "${cn_notifyParty_countryCode}",        
-                   "countryName": "${cn_notifyParty_countryName}",        
-         "provinceCode": "${cn_notifyParty_provinceCode}",       
-                   "provinceName": "${cn_notifyParty_provinceName}",       
-         "cityCode": "${cn_notifyParty_cityCode}",           
-                   "cityName": "${cn_notifyParty_cityName}",           
-         "districtCode": "${cn_notifyParty_districtCode}",       
-                   "districtName": "${cn_notifyParty_districtName}",       
-         "streetCode": "${cn_notifyParty_streetCode}",         
-                   "streetName": "${cn_notifyParty_streetName}",         
-         "addressDetail": "${cn_notifyParty_addressDetail}",      
-         "postCode": "${cn_notifyParty_postCode}",           
-         "contactName": "${cn_notifyParty_contactName}",        
-         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
-                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
-         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
-                   "mobileArea": "${cn_notifyParty_mobileArea}",         
-         "email": "${cn_notifyParty_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "loadingTypeCode": "${cn_sea_load_type_id}",
-   "serviceModeCode": "${cn_sea_server_type_id}",
-   "paymentTypeCode": "${paying_types_id}",
-   "marksAndNumbers":"${@CHAR}",
-   "containerInfos": [
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 465456
-   }
-  ],
-  "seaTransportationNode": {
-   "designatedSeaport": True,
-   "originSeaportId": "${sea_origin_id}",
-   "dischargeSeaportId": "${sea_dest_id}"
-  }
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "2${@INT}",
-  "width": "3${@INT}",
-  "amount": "4${@INT}",
-  "height": "4${@INT}",
-  "length": "5${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "11111",
-  "netWeight": "2222"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "needContainerJit": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"cn_sea_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
- "referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
-"attachments": $__attachment{cn_rail},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}" ,
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}" ,
-  "isDefault": True,
-  "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
-    "isDefault": False,
- "isInternationalPartner": False  
-    },
- "notifyParty":{                                  
-         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
-         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
-                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
-         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
-         "addressCode": "${cn_notifyParty_addressCode}",        
-         "countryCode": "${cn_notifyParty_countryCode}",        
-                   "countryName": "${cn_notifyParty_countryName}",        
-         "provinceCode": "${cn_notifyParty_provinceCode}",       
-                   "provinceName": "${cn_notifyParty_provinceName}",       
-         "cityCode": "${cn_notifyParty_cityCode}",           
-                   "cityName": "${cn_notifyParty_cityName}",           
-         "districtCode": "${cn_notifyParty_districtCode}",       
-                   "districtName": "${cn_notifyParty_districtName}",       
-         "streetCode": "${cn_notifyParty_streetCode}",         
-                   "streetName": "${cn_notifyParty_streetName}",         
-         "addressDetail": "${cn_notifyParty_addressDetail}",      
-         "postCode": "${cn_notifyParty_postCode}",           
-         "contactName": "${cn_notifyParty_contactName}",        
-         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
-                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
-         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
-                   "mobileArea": "${cn_notifyParty_mobileArea}",         
-         "email": "${cn_notifyParty_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       }, 
-   "pickUp":True,
-   "consigneeId": "${consignee_id}",
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "loadingTypeCode": "${cn_rail_load_type_id}",
-   "serviceModeCode": "${cn_rail_server_type_id}",
-   "paymentTypeCode": "${paying_types_id}",
-   "containerInfos": [
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   }
-  ],
-  "railwayTransportationNode": {
-   "designatedRailwayStation": True,
-   "dischargeRailwayStationId": "${dest_station_id}",
-   "originRailwayStationId": "${origin_station_id}"
-   }
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "needContainerJit": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"cn_rail_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{cn_express},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}" ,
- "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
- "isDefault": False,
- "isInternationalPartner": False
-    },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "serviceModeCode": "${cn_express_server_type_id}",
-   "paymentTypeCode":"${express_paying_types_id}"
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "2${@INT}",
-  "width": "${@INT}3",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "${@INT}7",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "12345678.11",
-  "netWeight": "12345.55"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "pod": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"cn_express_order_id":"$..data"}</t>
+    <t>{"cn_express_order_id":"$..data","save_demestic_express_params":"input_params"}</t>
   </si>
   <si>
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/domestic-express/submit/${cn_express_order_id}</t>
   </si>
   <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${internat_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{internat_express},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False,
-  "transportLocationCode": "${internat_shipper_transportLocationCode}"
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
-  "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}" ,
-   "transportLocationCode": "${internat_consignee_transportLocationCode}" ,
- "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
-  "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "serviceModeCode": "${internat_express_server_type_id}",
-   "paymentTypeCode": "${express_paying_types_id}",
-   "originLocationCode": "${internat_shipper_transportLocationCode}",
-   "destinationLocationCode": "${internat_consignee_transportLocationCode}",
-   "incotermsCode":"${incoterms_id}"
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "${@INT}2",
-  "width": "${@INT}3",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "${@INT}7",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "12345678.11",
-  "netWeight": "12345.55",
-  "cargoQuantity": 8456456123
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "pod": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"inernat_express_order_id":"$..data"}</t>
+    <t>{"inernat_express_order_id":"$..data","save_international_express_params":"input_params"}</t>
   </si>
   <si>
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-express/submit/${inernat_express_order_id}</t>
@@ -19901,13 +18690,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -19923,31 +18705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19978,6 +18737,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -19986,7 +18759,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -20007,32 +18819,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -20065,43 +18854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20119,7 +18872,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20131,31 +19004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20167,85 +19028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20311,6 +19100,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -20322,17 +19135,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20352,15 +19159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -20375,15 +19173,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -20392,10 +19181,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -20404,133 +19193,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21161,8 +19950,8 @@
   <sheetPr/>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView topLeftCell="B111" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24054,8 +22843,8 @@
   <sheetPr/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27754,8 +26543,8 @@
   <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27824,7 +26613,7 @@
         <v>2907</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2908</v>
+        <v>2469</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -27891,10 +26680,10 @@
         <v>591</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>2910</v>
+        <v>2192</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -27941,10 +26730,10 @@
         <v>591</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>2911</v>
+        <v>1523</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>2912</v>
+        <v>1642</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -27991,10 +26780,10 @@
         <v>591</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>2913</v>
+        <v>1256</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>2914</v>
+        <v>1360</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -28041,10 +26830,10 @@
         <v>591</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>2915</v>
+        <v>1030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>2916</v>
+        <v>1150</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -28091,10 +26880,10 @@
         <v>591</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>2917</v>
+        <v>740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>2918</v>
+        <v>861</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>37</v>
@@ -28138,10 +26927,10 @@
         <v>591</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>2919</v>
+        <v>1773</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2920</v>
+        <v>2909</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>37</v>
@@ -28155,7 +26944,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>2921</v>
+        <v>2910</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
@@ -28182,10 +26971,10 @@
         <v>591</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>2922</v>
+        <v>2608</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>2923</v>
+        <v>2911</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>37</v>
@@ -28199,7 +26988,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>2924</v>
+        <v>2912</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
@@ -28277,23 +27066,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2925</v>
+        <v>2913</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2926</v>
+        <v>2914</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2927</v>
+        <v>2915</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2928</v>
+        <v>2916</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -28304,20 +27093,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2929</v>
+        <v>2917</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2926</v>
+        <v>2914</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>2930</v>
+        <v>2918</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
@@ -28326,24 +27115,24 @@
     </row>
     <row r="4" ht="108" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>2931</v>
+        <v>2919</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2932</v>
+        <v>2920</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>2933</v>
+        <v>2921</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>2934</v>
+        <v>2922</v>
       </c>
     </row>
   </sheetData>
@@ -28358,8 +27147,8 @@
   <sheetPr/>
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32042,8 +30831,8 @@
   <sheetPr/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -35078,8 +33867,8 @@
   <sheetPr/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="B113" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38226,8 +37015,8 @@
   <sheetPr/>
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -40860,8 +39649,8 @@
   <sheetPr/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -43778,8 +42567,8 @@
   <sheetPr/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -46128,8 +44917,8 @@
   <sheetPr/>
   <dimension ref="A1:J159"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -89,7 +89,7 @@
     <t>{
   "clientId": "home",
   "password": "Jusda#123",
-  "username": "HP02"
+  "username": "ysxd_11"
 }</t>
   </si>
   <si>
@@ -18699,22 +18699,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -18725,51 +18717,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18790,7 +18737,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -18814,6 +18784,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -18854,7 +18854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18866,31 +18872,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18908,78 +18932,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -18992,7 +18944,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19004,7 +18962,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19022,19 +18998,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19100,6 +19100,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -19115,35 +19135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -19155,6 +19146,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -19184,7 +19184,7 @@
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19193,133 +19193,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -19795,7 +19795,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -27147,8 +27147,8 @@
   <sheetPr/>
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-SIT.xlsx
+++ b/data/运输下单测试用例-SIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="12"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -22087,10 +22087,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -22128,13 +22128,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -22142,7 +22135,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -22164,15 +22188,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -22186,31 +22210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -22224,17 +22234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -22248,26 +22249,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -22298,7 +22298,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22310,7 +22328,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22322,7 +22382,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22334,31 +22406,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22376,91 +22448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22472,13 +22472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22520,20 +22520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -22553,7 +22550,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -22569,21 +22566,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -22604,16 +22586,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -22625,10 +22625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -22637,133 +22637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -23406,8 +23406,8 @@
   <sheetPr/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25564,8 +25564,8 @@
   <sheetPr/>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27300,8 +27300,8 @@
   <sheetPr/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28777,7 +28777,7 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -30836,8 +30836,8 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -33936,8 +33936,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34486,8 +34486,8 @@
   <sheetPr/>
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36342,8 +36342,8 @@
   <sheetPr/>
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38335,8 +38335,8 @@
   <sheetPr/>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -39982,8 +39982,8 @@
   <sheetPr/>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41816,8 +41816,8 @@
   <sheetPr/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
